--- a/test.xlsx
+++ b/test.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王其昊\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王其昊\Desktop\info\InfoVisual\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC39C4E-C33D-487F-92B4-9479C8FF3457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -42,9 +49,6 @@
   </si>
   <si>
     <t>Blood_ketones_mg_per_dL</t>
-  </si>
-  <si>
-    <t>GKI (glucose mmol/ketone mmol)</t>
   </si>
   <si>
     <t>GK001</t>
@@ -313,11 +317,18 @@
   <si>
     <t>GK111</t>
   </si>
+  <si>
+    <t>GKI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -354,11 +365,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -638,14 +653,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G381"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -666,16 +688,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>1075</v>
@@ -689,16 +711,17 @@
       <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
-        <v>22.49</v>
+      <c r="G2" s="2">
+        <f>E2/F2*10.41/18.016</f>
+        <v>22.24605905861457</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>1159</v>
@@ -712,16 +735,17 @@
       <c r="F3" s="1">
         <v>55</v>
       </c>
-      <c r="G3" s="1">
-        <v>0.62</v>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G66" si="0">E3/F3*10.41/18.016</f>
+        <v>0.61984296786694659</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>1232</v>
@@ -735,16 +759,17 @@
       <c r="F4" s="1">
         <v>60</v>
       </c>
-      <c r="G4" s="1">
-        <v>0.53</v>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5296680728241564</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1317</v>
@@ -758,16 +783,17 @@
       <c r="F5" s="1">
         <v>64</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.52</v>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.53267755051065724</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>1403</v>
@@ -781,16 +807,17 @@
       <c r="F6" s="1">
         <v>61</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.5</v>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.50204008094808261</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>1484</v>
@@ -804,16 +831,17 @@
       <c r="F7" s="1">
         <v>59</v>
       </c>
-      <c r="G7" s="1">
-        <v>0.6</v>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.59740682481861695</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>1971</v>
@@ -827,16 +855,17 @@
       <c r="F8" s="1">
         <v>69</v>
       </c>
-      <c r="G8" s="1">
-        <v>0.82</v>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.82067148042319882</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>1982</v>
@@ -850,16 +879,17 @@
       <c r="F9" s="1">
         <v>40</v>
       </c>
-      <c r="G9" s="1">
-        <v>0.91</v>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91006605239786864</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>2014</v>
@@ -873,16 +903,17 @@
       <c r="F10" s="1">
         <v>51</v>
       </c>
-      <c r="G10" s="1">
-        <v>0.62</v>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.62313890920488979</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>2056</v>
@@ -896,16 +927,17 @@
       <c r="F11" s="1">
         <v>72</v>
       </c>
-      <c r="G11" s="1">
-        <v>0.5</v>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.49756697750148027</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <v>2105</v>
@@ -919,16 +951,17 @@
       <c r="F12" s="1">
         <v>53</v>
       </c>
-      <c r="G12" s="1">
-        <v>0.64</v>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.64323326854117102</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
         <v>2312</v>
@@ -942,16 +975,17 @@
       <c r="F13" s="1">
         <v>91</v>
       </c>
-      <c r="G13" s="1">
-        <v>0.32</v>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.31748336033415969</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>539</v>
@@ -965,16 +999,17 @@
       <c r="F14" s="1">
         <v>8</v>
       </c>
-      <c r="G14" s="1">
-        <v>5.48</v>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>5.7059696936056845</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1">
         <v>584</v>
@@ -988,16 +1023,17 @@
       <c r="F15" s="1">
         <v>32</v>
       </c>
-      <c r="G15" s="1">
-        <v>1.48</v>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4806630217584371</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1">
         <v>686</v>
@@ -1011,16 +1047,17 @@
       <c r="F16" s="1">
         <v>41</v>
       </c>
-      <c r="G16" s="1">
-        <v>1.3</v>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2965710696183341</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1">
         <v>819</v>
@@ -1034,16 +1071,17 @@
       <c r="F17" s="1">
         <v>26</v>
       </c>
-      <c r="G17" s="1">
-        <v>1.44</v>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4445492895204264</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1">
         <v>934</v>
@@ -1057,16 +1095,17 @@
       <c r="F18" s="1">
         <v>49</v>
       </c>
-      <c r="G18" s="1">
-        <v>0.81</v>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81366449777068917</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1">
         <v>641</v>
@@ -1080,16 +1119,17 @@
       <c r="F19" s="1">
         <v>44</v>
       </c>
-      <c r="G19" s="1">
-        <v>0.73</v>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7354069110285808</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1">
         <v>775</v>
@@ -1103,16 +1143,17 @@
       <c r="F20" s="1">
         <v>54</v>
       </c>
-      <c r="G20" s="1">
-        <v>0.5</v>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.50291716005525955</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1">
         <v>873</v>
@@ -1126,16 +1167,17 @@
       <c r="F21" s="1">
         <v>53</v>
       </c>
-      <c r="G21" s="1">
-        <v>0.7</v>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.69774456248533812</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1">
         <v>964</v>
@@ -1149,16 +1191,17 @@
       <c r="F22" s="1">
         <v>46</v>
       </c>
-      <c r="G22" s="1">
-        <v>0.99</v>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9923425554096843</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1">
         <v>1083</v>
@@ -1172,16 +1215,17 @@
       <c r="F23" s="1">
         <v>49</v>
       </c>
-      <c r="G23" s="1">
-        <v>0.81</v>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81366449777068917</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1">
         <v>704</v>
@@ -1195,16 +1239,17 @@
       <c r="F24" s="1">
         <v>29</v>
       </c>
-      <c r="G24" s="1">
-        <v>1.49</v>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4943613339866479</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1">
         <v>739</v>
@@ -1218,16 +1263,17 @@
       <c r="F25" s="1">
         <v>57</v>
       </c>
-      <c r="G25" s="1">
-        <v>0.56000000000000005</v>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.55754533981490151</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1">
         <v>894</v>
@@ -1241,16 +1287,17 @@
       <c r="F26" s="1">
         <v>41</v>
       </c>
-      <c r="G26" s="1">
-        <v>0.89</v>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88786931941255476</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1">
         <v>978</v>
@@ -1264,16 +1311,17 @@
       <c r="F27" s="1">
         <v>47</v>
       </c>
-      <c r="G27" s="1">
-        <v>0.78</v>
+      <c r="G27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.77452429991307981</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1">
         <v>1062</v>
@@ -1287,16 +1335,17 @@
       <c r="F28" s="1">
         <v>39</v>
       </c>
-      <c r="G28" s="1">
-        <v>1.17</v>
+      <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1704553217652685</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1">
         <v>1176</v>
@@ -1310,16 +1359,17 @@
       <c r="F29" s="1">
         <v>53</v>
       </c>
-      <c r="G29" s="1">
-        <v>0.91</v>
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90488747947317283</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1">
         <v>419</v>
@@ -1333,16 +1383,17 @@
       <c r="F30" s="1">
         <v>21</v>
       </c>
-      <c r="G30" s="1">
-        <v>2.14</v>
+      <c r="G30" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1461875158589194</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1">
         <v>597</v>
@@ -1356,16 +1407,17 @@
       <c r="F31" s="1">
         <v>32</v>
       </c>
-      <c r="G31" s="1">
-        <v>1.45</v>
+      <c r="G31" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4445492895204264</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1">
         <v>2822</v>
@@ -1379,16 +1431,17 @@
       <c r="F32" s="1">
         <v>6</v>
       </c>
-      <c r="G32" s="1">
-        <v>7.66</v>
+      <c r="G32" s="2">
+        <f t="shared" si="0"/>
+        <v>7.7042628774422752</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1">
         <v>2853</v>
@@ -1402,16 +1455,17 @@
       <c r="F33" s="1">
         <v>41</v>
       </c>
-      <c r="G33" s="1">
-        <v>0.94</v>
+      <c r="G33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94424197461335191</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1">
         <v>2916</v>
@@ -1425,16 +1479,17 @@
       <c r="F34" s="1">
         <v>46</v>
       </c>
-      <c r="G34" s="1">
-        <v>0.89</v>
+      <c r="G34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89185217005174144</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1">
         <v>3014</v>
@@ -1448,16 +1503,17 @@
       <c r="F35" s="1">
         <v>73</v>
       </c>
-      <c r="G35" s="1">
-        <v>0.48</v>
+      <c r="G35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.48283565293559461</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1">
         <v>3203</v>
@@ -1471,16 +1527,17 @@
       <c r="F36" s="1">
         <v>64</v>
       </c>
-      <c r="G36" s="1">
-        <v>0.54</v>
+      <c r="G36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54170598357015998</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1">
         <v>5549</v>
@@ -1494,16 +1551,17 @@
       <c r="F37" s="1">
         <v>7</v>
       </c>
-      <c r="G37" s="1">
-        <v>6.88</v>
+      <c r="G37" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8512909160111652</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1">
         <v>5579</v>
@@ -1517,16 +1575,17 @@
       <c r="F38" s="1">
         <v>42</v>
       </c>
-      <c r="G38" s="1">
-        <v>0.88</v>
+      <c r="G38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88048718599340281</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1">
         <v>5655</v>
@@ -1540,16 +1599,17 @@
       <c r="F39" s="1">
         <v>27</v>
       </c>
-      <c r="G39" s="1">
-        <v>1.63</v>
+      <c r="G39" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6264554963489246</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1">
         <v>5726</v>
@@ -1563,16 +1623,17 @@
       <c r="F40" s="1">
         <v>24</v>
       </c>
-      <c r="G40" s="1">
-        <v>1.63</v>
+      <c r="G40" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6371558614564834</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1">
         <v>5824</v>
@@ -1586,16 +1647,17 @@
       <c r="F41" s="1">
         <v>30</v>
       </c>
-      <c r="G41" s="1">
-        <v>1.43</v>
+      <c r="G41" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4252886323268208</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1">
         <v>5928</v>
@@ -1609,16 +1671,17 @@
       <c r="F42" s="1">
         <v>19</v>
       </c>
-      <c r="G42" s="1">
-        <v>2.4900000000000002</v>
+      <c r="G42" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4937482471721046</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1">
         <v>2493</v>
@@ -1632,16 +1695,17 @@
       <c r="F43" s="1">
         <v>2</v>
       </c>
-      <c r="G43" s="1">
-        <v>28.63</v>
+      <c r="G43" s="2">
+        <f t="shared" si="0"/>
+        <v>28.31316607460036</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1">
         <v>2524</v>
@@ -1655,16 +1719,17 @@
       <c r="F44" s="1">
         <v>15</v>
       </c>
-      <c r="G44" s="1">
-        <v>3.62</v>
+      <c r="G44" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6210035523978692</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1">
         <v>2587</v>
@@ -1678,16 +1743,17 @@
       <c r="F45" s="1">
         <v>17</v>
       </c>
-      <c r="G45" s="1">
-        <v>3.17</v>
+      <c r="G45" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1610137394211688</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" s="1">
         <v>2678</v>
@@ -1701,16 +1767,17 @@
       <c r="F46" s="1">
         <v>16</v>
       </c>
-      <c r="G46" s="1">
-        <v>2.74</v>
+      <c r="G46" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7446436500888103</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1">
         <v>2769</v>
@@ -1724,16 +1791,17 @@
       <c r="F47" s="1">
         <v>19</v>
       </c>
-      <c r="G47" s="1">
-        <v>2.7</v>
+      <c r="G47" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7066291951014305</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1">
         <v>2858</v>
@@ -1747,16 +1815,17 @@
       <c r="F48" s="1">
         <v>19</v>
       </c>
-      <c r="G48" s="1">
-        <v>2.82</v>
+      <c r="G48" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8282754510610451</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" s="1">
         <v>2958</v>
@@ -1770,16 +1839,17 @@
       <c r="F49" s="1">
         <v>25</v>
       </c>
-      <c r="G49" s="1">
-        <v>1.71</v>
+      <c r="G49" s="2">
+        <f t="shared" si="0"/>
+        <v>1.710346358792185</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" s="1">
         <v>511</v>
@@ -1793,16 +1863,17 @@
       <c r="F50" s="1">
         <v>40</v>
       </c>
-      <c r="G50" s="1">
-        <v>1.2</v>
+      <c r="G50" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1989759103019539</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" s="1">
         <v>574</v>
@@ -1816,16 +1887,17 @@
       <c r="F51" s="1">
         <v>35</v>
       </c>
-      <c r="G51" s="1">
-        <v>1.0900000000000001</v>
+      <c r="G51" s="2">
+        <f t="shared" si="0"/>
+        <v>1.089602892666836</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" s="1">
         <v>658</v>
@@ -1839,16 +1911,17 @@
       <c r="F52" s="1">
         <v>40</v>
       </c>
-      <c r="G52" s="1">
-        <v>0.97</v>
+      <c r="G52" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96784802397868575</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" s="1">
         <v>742</v>
@@ -1862,16 +1935,17 @@
       <c r="F53" s="1">
         <v>40</v>
       </c>
-      <c r="G53" s="1">
-        <v>0.97</v>
+      <c r="G53" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96784802397868575</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1">
         <v>847</v>
@@ -1885,16 +1959,17 @@
       <c r="F54" s="1">
         <v>5</v>
       </c>
-      <c r="G54" s="1">
-        <v>9.94</v>
+      <c r="G54" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9384991119005335</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" s="1">
         <v>654</v>
@@ -1908,16 +1983,17 @@
       <c r="F55" s="1">
         <v>54</v>
       </c>
-      <c r="G55" s="1">
-        <v>0.6</v>
+      <c r="G55" s="2">
+        <f t="shared" si="0"/>
+        <v>0.59922044602328806</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="1">
         <v>720</v>
@@ -1931,16 +2007,17 @@
       <c r="F56" s="1">
         <v>37</v>
       </c>
-      <c r="G56" s="1">
-        <v>0.8</v>
+      <c r="G56" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79645420287072155</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" s="1">
         <v>762</v>
@@ -1954,16 +2031,17 @@
       <c r="F57" s="1">
         <v>48</v>
       </c>
-      <c r="G57" s="1">
-        <v>0.69</v>
+      <c r="G57" s="2">
+        <f t="shared" si="0"/>
+        <v>0.68616091252220257</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" s="1">
         <v>853</v>
@@ -1977,16 +2055,17 @@
       <c r="F58" s="1">
         <v>39</v>
       </c>
-      <c r="G58" s="1">
-        <v>0.96</v>
+      <c r="G58" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9630328596802844</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" s="1">
         <v>940</v>
@@ -2000,16 +2079,17 @@
       <c r="F59" s="1">
         <v>32</v>
       </c>
-      <c r="G59" s="1">
-        <v>1.01</v>
+      <c r="G59" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0111845026642985</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" s="1">
         <v>993</v>
@@ -2023,16 +2103,17 @@
       <c r="F60" s="1">
         <v>41</v>
       </c>
-      <c r="G60" s="1">
-        <v>1.04</v>
+      <c r="G60" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0428941212147469</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" s="1">
         <v>2433</v>
@@ -2046,16 +2127,17 @@
       <c r="F61" s="1">
         <v>45</v>
       </c>
-      <c r="G61" s="1">
-        <v>1.23</v>
+      <c r="G61" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2326820603907638</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" s="1">
         <v>2470</v>
@@ -2069,16 +2151,17 @@
       <c r="F62" s="1">
         <v>52</v>
       </c>
-      <c r="G62" s="1">
-        <v>0.82</v>
+      <c r="G62" s="2">
+        <f t="shared" si="0"/>
+        <v>0.82228190326547357</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1">
         <v>2526</v>
@@ -2092,16 +2175,17 @@
       <c r="F63" s="1">
         <v>52</v>
       </c>
-      <c r="G63" s="1">
-        <v>0.87</v>
+      <c r="G63" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8667295737122559</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" s="1">
         <v>2610</v>
@@ -2115,16 +2199,17 @@
       <c r="F64" s="1">
         <v>43</v>
       </c>
-      <c r="G64" s="1">
-        <v>1.1599999999999999</v>
+      <c r="G64" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1556394316163412</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" s="1">
         <v>2763</v>
@@ -2138,16 +2223,17 @@
       <c r="F65" s="1">
         <v>46</v>
       </c>
-      <c r="G65" s="1">
-        <v>0.84</v>
+      <c r="G65" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84160697737277024</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" s="1">
         <v>2868</v>
@@ -2161,16 +2247,17 @@
       <c r="F66" s="1">
         <v>49</v>
       </c>
-      <c r="G66" s="1">
-        <v>1</v>
+      <c r="G66" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97875584514445224</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C67" s="1">
         <v>1602</v>
@@ -2184,16 +2271,17 @@
       <c r="F67" s="1">
         <v>32</v>
       </c>
-      <c r="G67" s="1">
-        <v>1.46</v>
+      <c r="G67" s="2">
+        <f t="shared" ref="G67:G130" si="1">E67/F67*10.41/18.016</f>
+        <v>1.4626061556394319</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68" s="1">
         <v>1630</v>
@@ -2207,16 +2295,17 @@
       <c r="F68" s="1">
         <v>23</v>
       </c>
-      <c r="G68" s="1">
-        <v>1.71</v>
+      <c r="G68" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7083365510850259</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C69" s="1">
         <v>1703</v>
@@ -2230,16 +2319,17 @@
       <c r="F69" s="1">
         <v>21</v>
       </c>
-      <c r="G69" s="1">
-        <v>2.39</v>
+      <c r="G69" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3938245369195643</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70" s="1">
         <v>1787</v>
@@ -2253,16 +2343,17 @@
       <c r="F70" s="1">
         <v>18</v>
       </c>
-      <c r="G70" s="1">
-        <v>2.4700000000000002</v>
+      <c r="G70" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4717843398460628</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71" s="1">
         <v>1878</v>
@@ -2276,16 +2367,17 @@
       <c r="F71" s="1">
         <v>22</v>
       </c>
-      <c r="G71" s="1">
-        <v>2.34</v>
+      <c r="G71" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3375433957694174</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" s="1">
         <v>1955</v>
@@ -2299,16 +2391,17 @@
       <c r="F72" s="1">
         <v>23</v>
       </c>
-      <c r="G72" s="1">
-        <v>1.81</v>
+      <c r="G72" s="2">
+        <f t="shared" si="1"/>
+        <v>1.808826936442969</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73" s="1">
         <v>1603</v>
@@ -2322,16 +2415,17 @@
       <c r="F73" s="1">
         <v>14</v>
       </c>
-      <c r="G73" s="1">
-        <v>2.65</v>
+      <c r="G73" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6414615579802083</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74" s="1">
         <v>1634</v>
@@ -2345,16 +2439,17 @@
       <c r="F74" s="1">
         <v>44</v>
       </c>
-      <c r="G74" s="1">
-        <v>0.63</v>
+      <c r="G74" s="2">
+        <f t="shared" si="1"/>
+        <v>0.63034878088164059</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75" s="1">
         <v>1697</v>
@@ -2368,16 +2463,17 @@
       <c r="F75" s="1">
         <v>60</v>
       </c>
-      <c r="G75" s="1">
-        <v>0.56000000000000005</v>
+      <c r="G75" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5585590586145649</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" s="1">
         <v>1781</v>
@@ -2391,16 +2487,17 @@
       <c r="F76" s="1">
         <v>71</v>
       </c>
-      <c r="G76" s="1">
-        <v>0.5</v>
+      <c r="G76" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4964366572436395</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" s="1">
         <v>1912</v>
@@ -2414,16 +2511,17 @@
       <c r="F77" s="1">
         <v>69</v>
       </c>
-      <c r="G77" s="1">
-        <v>0.24</v>
+      <c r="G77" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24285176461502819</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C78" s="1">
         <v>1968</v>
@@ -2437,16 +2535,17 @@
       <c r="F78" s="1">
         <v>60</v>
       </c>
-      <c r="G78" s="1">
-        <v>0.49</v>
+      <c r="G78" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49114675843694494</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79" s="1">
         <v>630</v>
@@ -2460,16 +2559,17 @@
       <c r="F79" s="1">
         <v>65</v>
       </c>
-      <c r="G79" s="1">
-        <v>0.52</v>
+      <c r="G79" s="2">
+        <f t="shared" si="1"/>
+        <v>0.51559297718267538</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" s="1">
         <v>667</v>
@@ -2483,16 +2583,17 @@
       <c r="F80" s="1">
         <v>67</v>
       </c>
-      <c r="G80" s="1">
-        <v>0.59</v>
+      <c r="G80" s="2">
+        <f t="shared" si="1"/>
+        <v>0.59506806553378766</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C81" s="1">
         <v>821</v>
@@ -2506,16 +2607,17 @@
       <c r="F81" s="1">
         <v>64</v>
       </c>
-      <c r="G81" s="1">
-        <v>0.5</v>
+      <c r="G81" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49656381827264656</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82" s="1">
         <v>898</v>
@@ -2529,16 +2631,17 @@
       <c r="F82" s="1">
         <v>59</v>
       </c>
-      <c r="G82" s="1">
-        <v>0.59</v>
+      <c r="G82" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58761327031339372</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83" s="1">
         <v>996</v>
@@ -2552,16 +2655,17 @@
       <c r="F83" s="1">
         <v>54</v>
       </c>
-      <c r="G83" s="1">
-        <v>0.6</v>
+      <c r="G83" s="2">
+        <f t="shared" si="1"/>
+        <v>0.59922044602328806</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" s="1">
         <v>1980</v>
@@ -2575,16 +2679,17 @@
       <c r="F84" s="1">
         <v>8</v>
       </c>
-      <c r="G84" s="1">
-        <v>5.05</v>
+      <c r="G84" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0559225133214927</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C85" s="1">
         <v>2022</v>
@@ -2598,16 +2703,17 @@
       <c r="F85" s="1">
         <v>55</v>
       </c>
-      <c r="G85" s="1">
-        <v>0.68</v>
+      <c r="G85" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6828778459551107</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C86" s="1">
         <v>2082</v>
@@ -2621,16 +2727,17 @@
       <c r="F86" s="1">
         <v>35</v>
       </c>
-      <c r="G86" s="1">
-        <v>1.0900000000000001</v>
+      <c r="G86" s="2">
+        <f t="shared" si="1"/>
+        <v>1.089602892666836</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C87" s="1">
         <v>2193</v>
@@ -2644,16 +2751,17 @@
       <c r="F87" s="1">
         <v>69</v>
       </c>
-      <c r="G87" s="1">
-        <v>0.53</v>
+      <c r="G87" s="2">
+        <f t="shared" si="1"/>
+        <v>0.52757452312919928</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C88" s="1">
         <v>2256</v>
@@ -2667,16 +2775,17 @@
       <c r="F88" s="1">
         <v>55</v>
       </c>
-      <c r="G88" s="1">
-        <v>0.74</v>
+      <c r="G88" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7354069110285808</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C89" s="1">
         <v>2298</v>
@@ -2690,16 +2799,17 @@
       <c r="F89" s="1">
         <v>51</v>
       </c>
-      <c r="G89" s="1">
-        <v>0.7</v>
+      <c r="G89" s="2">
+        <f t="shared" si="1"/>
+        <v>0.70244749764914849</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C90" s="1">
         <v>419</v>
@@ -2713,16 +2823,17 @@
       <c r="F90" s="1">
         <v>1</v>
       </c>
-      <c r="G90" s="1">
-        <v>48.85</v>
+      <c r="G90" s="2">
+        <f t="shared" si="1"/>
+        <v>50.848134991119011</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" s="1">
         <v>470</v>
@@ -2736,16 +2847,17 @@
       <c r="F91" s="1">
         <v>28</v>
       </c>
-      <c r="G91" s="1">
-        <v>1.65</v>
+      <c r="G91" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6509134737376303</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" s="1">
         <v>624</v>
@@ -2759,16 +2871,17 @@
       <c r="F92" s="1">
         <v>39</v>
       </c>
-      <c r="G92" s="1">
-        <v>1.02</v>
+      <c r="G92" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0222964202759941</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" s="1">
         <v>708</v>
@@ -2782,16 +2895,17 @@
       <c r="F93" s="1">
         <v>56</v>
       </c>
-      <c r="G93" s="1">
-        <v>0.6</v>
+      <c r="G93" s="2">
+        <f t="shared" si="1"/>
+        <v>0.59845613422989108</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" s="1">
         <v>821</v>
@@ -2805,16 +2919,17 @@
       <c r="F94" s="1">
         <v>47</v>
       </c>
-      <c r="G94" s="1">
-        <v>0.89</v>
+      <c r="G94" s="2">
+        <f t="shared" si="1"/>
+        <v>0.88517062847209105</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" s="1">
         <v>2484</v>
@@ -2828,16 +2943,17 @@
       <c r="F95" s="1">
         <v>1</v>
       </c>
-      <c r="G95" s="1">
-        <v>44.4</v>
+      <c r="G95" s="2">
+        <f t="shared" si="1"/>
+        <v>46.225577264653644</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" s="1">
         <v>2535</v>
@@ -2851,16 +2967,17 @@
       <c r="F96" s="1">
         <v>27</v>
       </c>
-      <c r="G96" s="1">
-        <v>1.54</v>
+      <c r="G96" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5408525754884548</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" s="1">
         <v>2591</v>
@@ -2874,16 +2991,17 @@
       <c r="F97" s="1">
         <v>22</v>
       </c>
-      <c r="G97" s="1">
-        <v>2.13</v>
+      <c r="G97" s="2">
+        <f t="shared" si="1"/>
+        <v>2.127427135475537</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" s="1">
         <v>2675</v>
@@ -2897,16 +3015,17 @@
       <c r="F98" s="1">
         <v>32</v>
       </c>
-      <c r="G98" s="1">
-        <v>1.21</v>
+      <c r="G98" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2098100299733572</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" s="1">
         <v>2745</v>
@@ -2920,16 +3039,17 @@
       <c r="F99" s="1">
         <v>36</v>
       </c>
-      <c r="G99" s="1">
-        <v>1.2</v>
+      <c r="G99" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2037910746003555</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" s="1">
         <v>2885</v>
@@ -2943,16 +3063,17 @@
       <c r="F100" s="1">
         <v>28</v>
       </c>
-      <c r="G100" s="1">
-        <v>1.75</v>
+      <c r="G100" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7540955658462321</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" s="1">
         <v>12636</v>
@@ -2966,16 +3087,17 @@
       <c r="F101" s="1">
         <v>2</v>
       </c>
-      <c r="G101" s="1">
-        <v>20.74</v>
+      <c r="G101" s="2">
+        <f t="shared" si="1"/>
+        <v>20.512599911190055</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1">
         <v>12689</v>
@@ -2989,16 +3111,17 @@
       <c r="F102" s="1">
         <v>31</v>
       </c>
-      <c r="G102" s="1">
-        <v>1.1000000000000001</v>
+      <c r="G102" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0997213946026472</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" s="1">
         <v>12899</v>
@@ -3012,16 +3135,17 @@
       <c r="F103" s="1">
         <v>18</v>
       </c>
-      <c r="G103" s="1">
-        <v>2.11</v>
+      <c r="G103" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9902679100059211</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" s="1">
         <v>13000</v>
@@ -3035,16 +3159,17 @@
       <c r="F104" s="1">
         <v>47</v>
       </c>
-      <c r="G104" s="1">
-        <v>0.7</v>
+      <c r="G104" s="2">
+        <f t="shared" si="1"/>
+        <v>0.70076008087373876</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" s="1">
         <v>885</v>
@@ -3058,16 +3183,17 @@
       <c r="F105" s="1">
         <v>7</v>
       </c>
-      <c r="G105" s="1">
-        <v>6.21</v>
+      <c r="G105" s="2">
+        <f t="shared" si="1"/>
+        <v>6.1909255265161125</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" s="1">
         <v>923</v>
@@ -3081,16 +3207,17 @@
       <c r="F106" s="1">
         <v>44</v>
       </c>
-      <c r="G106" s="1">
-        <v>0.92</v>
+      <c r="G106" s="2">
+        <f t="shared" si="1"/>
+        <v>0.919258638785726</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" s="1">
         <v>986</v>
@@ -3104,16 +3231,17 @@
       <c r="F107" s="1">
         <v>48</v>
       </c>
-      <c r="G107" s="1">
-        <v>0.71</v>
+      <c r="G107" s="2">
+        <f t="shared" si="1"/>
+        <v>0.71023673401420973</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" s="1">
         <v>1084</v>
@@ -3127,16 +3255,17 @@
       <c r="F108" s="1">
         <v>45</v>
       </c>
-      <c r="G108" s="1">
-        <v>0.67</v>
+      <c r="G108" s="2">
+        <f t="shared" si="1"/>
+        <v>0.66770278271166372</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" s="1">
         <v>1175</v>
@@ -3150,16 +3279,17 @@
       <c r="F109" s="1">
         <v>33</v>
       </c>
-      <c r="G109" s="1">
-        <v>1.31</v>
+      <c r="G109" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3132266268367514</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" s="1">
         <v>1257</v>
@@ -3173,16 +3303,17 @@
       <c r="F110" s="1">
         <v>62</v>
       </c>
-      <c r="G110" s="1">
-        <v>0.55000000000000004</v>
+      <c r="G110" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54986069730132359</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C111" s="1">
         <v>1468</v>
@@ -3196,16 +3327,17 @@
       <c r="F111" s="1">
         <v>4</v>
       </c>
-      <c r="G111" s="1">
-        <v>12.85</v>
+      <c r="G111" s="2">
+        <f t="shared" si="1"/>
+        <v>12.712033747779753</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C112" s="1">
         <v>1506</v>
@@ -3219,16 +3351,17 @@
       <c r="F112" s="1">
         <v>50</v>
       </c>
-      <c r="G112" s="1">
-        <v>0.86</v>
+      <c r="G112" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8551731793960925</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C113" s="1">
         <v>1590</v>
@@ -3242,16 +3375,17 @@
       <c r="F113" s="1">
         <v>42</v>
       </c>
-      <c r="G113" s="1">
-        <v>1.06</v>
+      <c r="G113" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0593361456483128</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C114" s="1">
         <v>1681</v>
@@ -3265,16 +3399,17 @@
       <c r="F114" s="1">
         <v>29</v>
       </c>
-      <c r="G114" s="1">
-        <v>1.49</v>
+      <c r="G114" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4943613339866479</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C115" s="1">
         <v>1772</v>
@@ -3288,16 +3423,17 @@
       <c r="F115" s="1">
         <v>33</v>
       </c>
-      <c r="G115" s="1">
-        <v>1.37</v>
+      <c r="G115" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3657556919102214</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C116" s="1">
         <v>1856</v>
@@ -3311,16 +3447,17 @@
       <c r="F116" s="1">
         <v>20</v>
       </c>
-      <c r="G116" s="1">
-        <v>2.31</v>
+      <c r="G116" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3112788632326824</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117" s="1">
         <v>7139</v>
@@ -3334,16 +3471,17 @@
       <c r="F117" s="1">
         <v>11</v>
       </c>
-      <c r="G117" s="1">
-        <v>4.08</v>
+      <c r="G117" s="2">
+        <f t="shared" si="1"/>
+        <v>4.097267075730664</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" s="1">
         <v>7219</v>
@@ -3357,16 +3495,17 @@
       <c r="F118" s="1">
         <v>14</v>
       </c>
-      <c r="G118" s="1">
-        <v>2.69</v>
+      <c r="G118" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6827343948236493</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" s="1">
         <v>7496</v>
@@ -3380,16 +3519,17 @@
       <c r="F119" s="1">
         <v>19</v>
       </c>
-      <c r="G119" s="1">
-        <v>2.73</v>
+      <c r="G119" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7370407590913342</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C120" s="1">
         <v>1722</v>
@@ -3403,16 +3543,17 @@
       <c r="F120" s="1">
         <v>2</v>
       </c>
-      <c r="G120" s="1">
-        <v>24.83</v>
+      <c r="G120" s="2">
+        <f t="shared" si="1"/>
+        <v>24.55733792184725</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C121" s="1">
         <v>1767</v>
@@ -3426,16 +3567,17 @@
       <c r="F121" s="1">
         <v>42</v>
       </c>
-      <c r="G121" s="1">
-        <v>0.87</v>
+      <c r="G121" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8667295737122559</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C122" s="1">
         <v>1531</v>
@@ -3449,16 +3591,17 @@
       <c r="F122" s="1">
         <v>24</v>
       </c>
-      <c r="G122" s="1">
-        <v>1.47</v>
+      <c r="G122" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4686251110124335</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C123" s="1">
         <v>1560</v>
@@ -3472,16 +3615,17 @@
       <c r="F123" s="1">
         <v>28</v>
       </c>
-      <c r="G123" s="1">
-        <v>1.34</v>
+      <c r="G123" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3413671974118246</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C124" s="1">
         <v>1616</v>
@@ -3495,16 +3639,17 @@
       <c r="F124" s="1">
         <v>44</v>
       </c>
-      <c r="G124" s="1">
-        <v>0.93</v>
+      <c r="G124" s="2">
+        <f t="shared" si="1"/>
+        <v>0.93239090505409339</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C125" s="1">
         <v>1707</v>
@@ -3518,16 +3663,17 @@
       <c r="F125" s="1">
         <v>47</v>
       </c>
-      <c r="G125" s="1">
-        <v>0.85</v>
+      <c r="G125" s="2">
+        <f t="shared" si="1"/>
+        <v>0.84828851895242063</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C126" s="1">
         <v>1805</v>
@@ -3541,16 +3687,17 @@
       <c r="F126" s="1">
         <v>33</v>
       </c>
-      <c r="G126" s="1">
-        <v>1.17</v>
+      <c r="G126" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1731491199741646</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C127" s="1">
         <v>1896</v>
@@ -3564,16 +3711,17 @@
       <c r="F127" s="1">
         <v>34</v>
       </c>
-      <c r="G127" s="1">
-        <v>1.1399999999999999</v>
+      <c r="G127" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1386447340925716</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C128" s="1">
         <v>2007</v>
@@ -3587,16 +3735,17 @@
       <c r="F128" s="1">
         <v>55</v>
       </c>
-      <c r="G128" s="1">
-        <v>0.63</v>
+      <c r="G128" s="2">
+        <f t="shared" si="1"/>
+        <v>0.63034878088164059</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C129" s="1">
         <v>4602</v>
@@ -3610,16 +3759,17 @@
       <c r="F129" s="1">
         <v>2</v>
       </c>
-      <c r="G129" s="1">
-        <v>26</v>
+      <c r="G129" s="2">
+        <f t="shared" si="1"/>
+        <v>25.712977353463589</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C130" s="1">
         <v>4647</v>
@@ -3633,16 +3783,17 @@
       <c r="F130" s="1">
         <v>22</v>
       </c>
-      <c r="G130" s="1">
-        <v>1.89</v>
+      <c r="G130" s="2">
+        <f t="shared" si="1"/>
+        <v>1.891046342644922</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C131" s="1">
         <v>5032</v>
@@ -3656,16 +3807,17 @@
       <c r="F131" s="1">
         <v>25</v>
       </c>
-      <c r="G131" s="1">
-        <v>1.64</v>
+      <c r="G131" s="2">
+        <f t="shared" ref="G131:G194" si="2">E131/F131*10.41/18.016</f>
+        <v>1.6410079928952044</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C132" s="1">
         <v>380</v>
@@ -3679,16 +3831,17 @@
       <c r="F132" s="1">
         <v>4</v>
       </c>
-      <c r="G132" s="1">
-        <v>12.12</v>
+      <c r="G132" s="2">
+        <f t="shared" si="2"/>
+        <v>11.989759103019539</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C133" s="1">
         <v>425</v>
@@ -3702,16 +3855,17 @@
       <c r="F133" s="1">
         <v>40</v>
       </c>
-      <c r="G133" s="1">
-        <v>1.1399999999999999</v>
+      <c r="G133" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1411939387211369</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C134" s="1">
         <v>530</v>
@@ -3725,16 +3879,17 @@
       <c r="F134" s="1">
         <v>44</v>
       </c>
-      <c r="G134" s="1">
-        <v>0.92</v>
+      <c r="G134" s="2">
+        <f t="shared" si="2"/>
+        <v>0.919258638785726</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C135" s="1">
         <v>646</v>
@@ -3748,16 +3903,17 @@
       <c r="F135" s="1">
         <v>14</v>
       </c>
-      <c r="G135" s="1">
-        <v>4.0999999999999996</v>
+      <c r="G135" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0860108475006349</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C136" s="1">
         <v>744</v>
@@ -3771,16 +3927,17 @@
       <c r="F136" s="1">
         <v>4</v>
       </c>
-      <c r="G136" s="1">
-        <v>14.31</v>
+      <c r="G136" s="2">
+        <f t="shared" si="2"/>
+        <v>14.15658303730018</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C137" s="1">
         <v>1831</v>
@@ -3794,16 +3951,17 @@
       <c r="F137" s="1">
         <v>33</v>
       </c>
-      <c r="G137" s="1">
-        <v>1.31</v>
+      <c r="G137" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3132266268367514</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C138" s="1">
         <v>2008</v>
@@ -3817,16 +3975,17 @@
       <c r="F138" s="1">
         <v>42</v>
       </c>
-      <c r="G138" s="1">
-        <v>0.9</v>
+      <c r="G138" s="2">
+        <f t="shared" si="2"/>
+        <v>0.89424479827454983</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C139" s="1">
         <v>2126</v>
@@ -3840,16 +3999,17 @@
       <c r="F139" s="1">
         <v>50</v>
       </c>
-      <c r="G139" s="1">
-        <v>0.82</v>
+      <c r="G139" s="2">
+        <f t="shared" si="2"/>
+        <v>0.82050399644760219</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C140" s="1">
         <v>2160</v>
@@ -3863,16 +4023,17 @@
       <c r="F140" s="1">
         <v>39</v>
       </c>
-      <c r="G140" s="1">
-        <v>1.1499999999999999</v>
+      <c r="G140" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1556394316163412</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C141" s="1">
         <v>2224</v>
@@ -3886,16 +4047,17 @@
       <c r="F141" s="1">
         <v>77</v>
       </c>
-      <c r="G141" s="1">
-        <v>0.4</v>
+      <c r="G141" s="2">
+        <f t="shared" si="2"/>
+        <v>0.39772006412770183</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142" s="1">
         <v>2176</v>
@@ -3909,16 +4071,17 @@
       <c r="F142" s="1">
         <v>33</v>
       </c>
-      <c r="G142" s="1">
-        <v>0.91</v>
+      <c r="G142" s="2">
+        <f t="shared" si="2"/>
+        <v>0.91050379460681419</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143" s="1">
         <v>2207</v>
@@ -3932,16 +4095,17 @@
       <c r="F143" s="1">
         <v>20</v>
       </c>
-      <c r="G143" s="1">
-        <v>2.4300000000000002</v>
+      <c r="G143" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4268428063943164</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C144" s="1">
         <v>2249</v>
@@ -3955,16 +4119,17 @@
       <c r="F144" s="1">
         <v>21</v>
       </c>
-      <c r="G144" s="1">
-        <v>2.09</v>
+      <c r="G144" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0911570667343318</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C145" s="1">
         <v>2304</v>
@@ -3978,16 +4143,17 @@
       <c r="F145" s="1">
         <v>61</v>
       </c>
-      <c r="G145" s="1">
-        <v>0.69</v>
+      <c r="G145" s="2">
+        <f t="shared" si="2"/>
+        <v>0.69148916809830252</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" s="1">
         <v>2449</v>
@@ -4001,16 +4167,17 @@
       <c r="F146" s="1">
         <v>50</v>
       </c>
-      <c r="G146" s="1">
-        <v>0.95</v>
+      <c r="G146" s="2">
+        <f t="shared" si="2"/>
+        <v>0.94762433392539969</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" s="1">
         <v>2563</v>
@@ -4024,16 +4191,17 @@
       <c r="F147" s="1">
         <v>43</v>
       </c>
-      <c r="G147" s="1">
-        <v>0.99</v>
+      <c r="G147" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99438741790243301</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" s="1">
         <v>3822</v>
@@ -4047,16 +4215,17 @@
       <c r="F148" s="1">
         <v>65</v>
       </c>
-      <c r="G148" s="1">
-        <v>0.51</v>
+      <c r="G148" s="2">
+        <f t="shared" si="2"/>
+        <v>0.50670344309331883</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" s="1">
         <v>3988</v>
@@ -4070,16 +4239,17 @@
       <c r="F149" s="1">
         <v>60</v>
       </c>
-      <c r="G149" s="1">
-        <v>0.66</v>
+      <c r="G149" s="2">
+        <f t="shared" si="2"/>
+        <v>0.65486234458259329</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" s="1">
         <v>6919</v>
@@ -4093,16 +4263,17 @@
       <c r="F150" s="1">
         <v>21</v>
       </c>
-      <c r="G150" s="1">
-        <v>2.06</v>
+      <c r="G150" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0636418421720379</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" s="1">
         <v>7006</v>
@@ -4116,16 +4287,17 @@
       <c r="F151" s="1">
         <v>20</v>
       </c>
-      <c r="G151" s="1">
-        <v>2.17</v>
+      <c r="G151" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1668239342806399</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" s="1">
         <v>7167</v>
@@ -4139,16 +4311,17 @@
       <c r="F152" s="1">
         <v>43</v>
       </c>
-      <c r="G152" s="1">
-        <v>0.97</v>
+      <c r="G152" s="2">
+        <f t="shared" si="2"/>
+        <v>0.96751208228344854</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153" s="1">
         <v>7223</v>
@@ -4162,16 +4335,17 @@
       <c r="F153" s="1">
         <v>61</v>
       </c>
-      <c r="G153" s="1">
-        <v>0.6</v>
+      <c r="G153" s="2">
+        <f t="shared" si="2"/>
+        <v>0.59676462452319257</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" s="1">
         <v>7242</v>
@@ -4185,16 +4359,17 @@
       <c r="F154" s="1">
         <v>31</v>
       </c>
-      <c r="G154" s="1">
-        <v>1.38</v>
+      <c r="G154" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3793115796711168</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C155" s="1">
         <v>7335</v>
@@ -4208,16 +4383,17 @@
       <c r="F155" s="1">
         <v>33</v>
       </c>
-      <c r="G155" s="1">
-        <v>1.35</v>
+      <c r="G155" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3482460035523982</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C156" s="1">
         <v>671</v>
@@ -4231,16 +4407,17 @@
       <c r="F156" s="1">
         <v>5</v>
       </c>
-      <c r="G156" s="1">
-        <v>10.18</v>
+      <c r="G156" s="2">
+        <f t="shared" si="2"/>
+        <v>10.169626998223803</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C157" s="1">
         <v>744</v>
@@ -4254,16 +4431,17 @@
       <c r="F157" s="1">
         <v>25</v>
       </c>
-      <c r="G157" s="1">
-        <v>1.18</v>
+      <c r="G157" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4098801065719362</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C158" s="1">
         <v>842</v>
@@ -4277,16 +4455,17 @@
       <c r="F158" s="1">
         <v>14</v>
       </c>
-      <c r="G158" s="1">
-        <v>3.23</v>
+      <c r="G158" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2192812737883787</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C159" s="1">
         <v>1038</v>
@@ -4300,16 +4479,17 @@
       <c r="F159" s="1">
         <v>5</v>
       </c>
-      <c r="G159" s="1">
-        <v>8.33</v>
+      <c r="G159" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3206039076376559</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C160" s="1">
         <v>3403</v>
@@ -4323,16 +4503,17 @@
       <c r="F160" s="1">
         <v>5</v>
       </c>
-      <c r="G160" s="1">
-        <v>9.25</v>
+      <c r="G160" s="2">
+        <f t="shared" si="2"/>
+        <v>9.2451154529307296</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C161" s="1">
         <v>3691</v>
@@ -4346,16 +4527,17 @@
       <c r="F161" s="1">
         <v>42</v>
       </c>
-      <c r="G161" s="1">
-        <v>1.02</v>
+      <c r="G161" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0180633088048721</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C162" s="1">
         <v>3775</v>
@@ -4369,16 +4551,17 @@
       <c r="F162" s="1">
         <v>34</v>
       </c>
-      <c r="G162" s="1">
-        <v>1.1200000000000001</v>
+      <c r="G162" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1216500365688016</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C163" s="1">
         <v>3915</v>
@@ -4392,16 +4575,17 @@
       <c r="F163" s="1">
         <v>44</v>
       </c>
-      <c r="G163" s="1">
-        <v>0.8</v>
+      <c r="G163" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8010682423704184</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C164" s="1">
         <v>2335</v>
@@ -4415,16 +4599,17 @@
       <c r="F164" s="1">
         <v>21</v>
       </c>
-      <c r="G164" s="1">
-        <v>1.54</v>
+      <c r="G164" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5408525754884548</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C165" s="1">
         <v>2366</v>
@@ -4438,16 +4623,17 @@
       <c r="F165" s="1">
         <v>26</v>
       </c>
-      <c r="G165" s="1">
-        <v>1.47</v>
+      <c r="G165" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4667731247438176</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C166" s="1">
         <v>463</v>
@@ -4461,16 +4647,17 @@
       <c r="F166" s="1">
         <v>27</v>
       </c>
-      <c r="G166" s="1">
-        <v>1.54</v>
+      <c r="G166" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5408525754884548</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C167" s="1">
         <v>652</v>
@@ -4484,16 +4671,17 @@
       <c r="F167" s="1">
         <v>59</v>
       </c>
-      <c r="G167" s="1">
-        <v>0.78</v>
+      <c r="G167" s="2">
+        <f t="shared" si="2"/>
+        <v>0.78348436041785841</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C168" s="1">
         <v>898</v>
@@ -4507,16 +4695,17 @@
       <c r="F168" s="1">
         <v>26</v>
       </c>
-      <c r="G168" s="1">
-        <v>1.55</v>
+      <c r="G168" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5556684656373825</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" s="1">
         <v>5872</v>
@@ -4530,16 +4719,17 @@
       <c r="F169" s="1">
         <v>1</v>
       </c>
-      <c r="G169" s="1">
-        <v>46.63</v>
+      <c r="G169" s="2">
+        <f t="shared" si="2"/>
+        <v>48.536856127886331</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C170" s="1">
         <v>5900</v>
@@ -4553,16 +4743,17 @@
       <c r="F170" s="1">
         <v>5</v>
       </c>
-      <c r="G170" s="1">
-        <v>5.32</v>
+      <c r="G170" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3159413854351687</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171" s="1">
         <v>5921</v>
@@ -4576,16 +4767,17 @@
       <c r="F171" s="1">
         <v>44</v>
       </c>
-      <c r="G171" s="1">
-        <v>0.84</v>
+      <c r="G171" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8404650411755209</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" s="1">
         <v>6002</v>
@@ -4599,16 +4791,17 @@
       <c r="F172" s="1">
         <v>60</v>
       </c>
-      <c r="G172" s="1">
-        <v>0.51</v>
+      <c r="G172" s="2">
+        <f t="shared" si="2"/>
+        <v>0.51040741563055059</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" s="1">
         <v>6051</v>
@@ -4622,16 +4815,17 @@
       <c r="F173" s="1">
         <v>70</v>
       </c>
-      <c r="G173" s="1">
-        <v>0.55000000000000004</v>
+      <c r="G173" s="2">
+        <f t="shared" si="2"/>
+        <v>0.54480144633341798</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" s="1">
         <v>6057</v>
@@ -4645,16 +4839,17 @@
       <c r="F174" s="1">
         <v>70</v>
       </c>
-      <c r="G174" s="1">
-        <v>0.49</v>
+      <c r="G174" s="2">
+        <f t="shared" si="2"/>
+        <v>0.48701947475260093</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" s="1">
         <v>6163</v>
@@ -4668,16 +4863,17 @@
       <c r="F175" s="1">
         <v>55</v>
       </c>
-      <c r="G175" s="1">
-        <v>0.63</v>
+      <c r="G175" s="2">
+        <f t="shared" si="2"/>
+        <v>0.63034878088164059</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" s="1">
         <v>6183</v>
@@ -4691,16 +4887,17 @@
       <c r="F176" s="1">
         <v>56</v>
       </c>
-      <c r="G176" s="1">
-        <v>0.8</v>
+      <c r="G176" s="2">
+        <f t="shared" si="2"/>
+        <v>0.80482031844709467</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" s="1">
         <v>6186</v>
@@ -4714,16 +4911,17 @@
       <c r="F177" s="1">
         <v>80</v>
       </c>
-      <c r="G177" s="1">
-        <v>0.55000000000000004</v>
+      <c r="G177" s="2">
+        <f t="shared" si="2"/>
+        <v>0.54892873001776199</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C178" s="1">
         <v>2632</v>
@@ -4737,16 +4935,17 @@
       <c r="F178" s="1">
         <v>3</v>
       </c>
-      <c r="G178" s="1">
-        <v>17.8</v>
+      <c r="G178" s="2">
+        <f t="shared" si="2"/>
+        <v>17.912411190053287</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C179" s="1">
         <v>2670</v>
@@ -4760,16 +4959,17 @@
       <c r="F179" s="1">
         <v>74</v>
       </c>
-      <c r="G179" s="1">
-        <v>0.48</v>
+      <c r="G179" s="2">
+        <f t="shared" si="2"/>
+        <v>0.48411922135279151</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" s="1">
         <v>2740</v>
@@ -4783,16 +4983,17 @@
       <c r="F180" s="1">
         <v>74</v>
       </c>
-      <c r="G180" s="1">
-        <v>0.52</v>
+      <c r="G180" s="2">
+        <f t="shared" si="2"/>
+        <v>0.52316109404253275</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C181" s="1">
         <v>3203</v>
@@ -4806,16 +5007,17 @@
       <c r="F181" s="1">
         <v>59</v>
       </c>
-      <c r="G181" s="1">
-        <v>0.28999999999999998</v>
+      <c r="G181" s="2">
+        <f t="shared" si="2"/>
+        <v>0.29380663515669686</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" s="1">
         <v>1036</v>
@@ -4829,16 +5031,17 @@
       <c r="F182" s="1">
         <v>2</v>
       </c>
-      <c r="G182" s="1">
-        <v>25.42</v>
+      <c r="G182" s="2">
+        <f t="shared" si="2"/>
+        <v>25.135157637655418</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" s="1">
         <v>1425</v>
@@ -4852,16 +5055,17 @@
       <c r="F183" s="1">
         <v>39</v>
       </c>
-      <c r="G183" s="1">
-        <v>0.86</v>
+      <c r="G183" s="2">
+        <f t="shared" si="2"/>
+        <v>0.85932162863779227</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" s="1">
         <v>746</v>
@@ -4875,16 +5079,17 @@
       <c r="F184" s="1">
         <v>29</v>
       </c>
-      <c r="G184" s="1">
-        <v>1.39</v>
+      <c r="G184" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3947372450542048</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" s="1">
         <v>823</v>
@@ -4898,16 +5103,17 @@
       <c r="F185" s="1">
         <v>18</v>
       </c>
-      <c r="G185" s="1">
-        <v>2.21</v>
+      <c r="G185" s="2">
+        <f t="shared" si="2"/>
+        <v>2.2149755772646538</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C186" s="1">
         <v>935</v>
@@ -4921,16 +5127,17 @@
       <c r="F186" s="1">
         <v>27</v>
       </c>
-      <c r="G186" s="1">
-        <v>1.89</v>
+      <c r="G186" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8832642589303334</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C187" s="1">
         <v>1103</v>
@@ -4944,16 +5151,17 @@
       <c r="F187" s="1">
         <v>46</v>
       </c>
-      <c r="G187" s="1">
-        <v>0.83</v>
+      <c r="G187" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8290456792030273</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" s="1">
         <v>2200</v>
@@ -4967,16 +5175,17 @@
       <c r="F188" s="1">
         <v>1</v>
       </c>
-      <c r="G188" s="1">
-        <v>42.74</v>
+      <c r="G188" s="2">
+        <f t="shared" si="2"/>
+        <v>44.49211811722914</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C189" s="1">
         <v>2508</v>
@@ -4990,16 +5199,17 @@
       <c r="F189" s="1">
         <v>48</v>
       </c>
-      <c r="G189" s="1">
-        <v>0.77</v>
+      <c r="G189" s="2">
+        <f t="shared" si="2"/>
+        <v>0.77042628774422739</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C190" s="1">
         <v>2602</v>
@@ -5013,16 +5223,17 @@
       <c r="F190" s="1">
         <v>47</v>
       </c>
-      <c r="G190" s="1">
-        <v>0.89</v>
+      <c r="G190" s="2">
+        <f t="shared" si="2"/>
+        <v>0.88517062847209105</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C191" s="1">
         <v>2189</v>
@@ -5036,16 +5247,17 @@
       <c r="F191" s="1">
         <v>1</v>
       </c>
-      <c r="G191" s="1">
-        <v>38.85</v>
+      <c r="G191" s="2">
+        <f t="shared" si="2"/>
+        <v>40.447380106571941</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C192" s="1">
         <v>2462</v>
@@ -5059,16 +5271,17 @@
       <c r="F192" s="1">
         <v>40</v>
       </c>
-      <c r="G192" s="1">
-        <v>1.03</v>
+      <c r="G192" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0256299955595027</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" s="1">
         <v>2331</v>
@@ -5082,16 +5295,17 @@
       <c r="F193" s="1">
         <v>8</v>
       </c>
-      <c r="G193" s="1">
-        <v>5.91</v>
+      <c r="G193" s="2">
+        <f t="shared" si="2"/>
+        <v>5.9226520870337485</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" s="1">
         <v>2423</v>
@@ -5105,16 +5319,17 @@
       <c r="F194" s="1">
         <v>34</v>
       </c>
-      <c r="G194" s="1">
-        <v>0.93</v>
+      <c r="G194" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9347083638073348</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" s="1">
         <v>2640</v>
@@ -5128,16 +5343,17 @@
       <c r="F195" s="1">
         <v>39</v>
       </c>
-      <c r="G195" s="1">
-        <v>0.99</v>
+      <c r="G195" s="2">
+        <f t="shared" ref="G195:G258" si="3">E195/F195*10.41/18.016</f>
+        <v>0.99266463997813914</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" s="1">
         <v>2731</v>
@@ -5151,16 +5367,17 @@
       <c r="F196" s="1">
         <v>19</v>
       </c>
-      <c r="G196" s="1">
-        <v>1.97</v>
+      <c r="G196" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9767516593437415</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" s="1">
         <v>1699</v>
@@ -5174,16 +5391,17 @@
       <c r="F197" s="1">
         <v>18</v>
       </c>
-      <c r="G197" s="1">
-        <v>2.34</v>
+      <c r="G197" s="2">
+        <f t="shared" si="3"/>
+        <v>2.3433799585553583</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C198" s="1">
         <v>1744</v>
@@ -5197,16 +5415,17 @@
       <c r="F198" s="1">
         <v>22</v>
       </c>
-      <c r="G198" s="1">
-        <v>2.0499999999999998</v>
+      <c r="G198" s="2">
+        <f t="shared" si="3"/>
+        <v>2.048633537865332</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" s="1">
         <v>1779</v>
@@ -5220,16 +5439,17 @@
       <c r="F199" s="1">
         <v>2</v>
       </c>
-      <c r="G199" s="1">
-        <v>18.989999999999998</v>
+      <c r="G199" s="2">
+        <f t="shared" si="3"/>
+        <v>18.779140763765543</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" s="1">
         <v>2085</v>
@@ -5243,16 +5463,17 @@
       <c r="F200" s="1">
         <v>31</v>
       </c>
-      <c r="G200" s="1">
-        <v>1.53</v>
+      <c r="G200" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5284263450409672</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201" s="1">
         <v>5739</v>
@@ -5266,16 +5487,17 @@
       <c r="F201" s="1">
         <v>1</v>
       </c>
-      <c r="G201" s="1">
-        <v>44.4</v>
+      <c r="G201" s="2">
+        <f t="shared" si="3"/>
+        <v>46.225577264653644</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" s="1">
         <v>5831</v>
@@ -5289,16 +5511,17 @@
       <c r="F202" s="1">
         <v>29</v>
       </c>
-      <c r="G202" s="1">
-        <v>1.31</v>
+      <c r="G202" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3150379739082503</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" s="1">
         <v>5909</v>
@@ -5312,16 +5535,17 @@
       <c r="F203" s="1">
         <v>33</v>
       </c>
-      <c r="G203" s="1">
-        <v>0.72</v>
+      <c r="G203" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7178972226707574</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" s="1">
         <v>6105</v>
@@ -5335,16 +5559,17 @@
       <c r="F204" s="1">
         <v>10</v>
       </c>
-      <c r="G204" s="1">
-        <v>3.82</v>
+      <c r="G204" s="2">
+        <f t="shared" si="3"/>
+        <v>3.813610124333926</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C205" s="1">
         <v>1129</v>
@@ -5358,16 +5583,17 @@
       <c r="F205" s="1">
         <v>18</v>
       </c>
-      <c r="G205" s="1">
-        <v>2.15</v>
+      <c r="G205" s="2">
+        <f t="shared" si="3"/>
+        <v>2.1507733866193015</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C206" s="1">
         <v>1207</v>
@@ -5381,16 +5607,17 @@
       <c r="F206" s="1">
         <v>10</v>
       </c>
-      <c r="G206" s="1">
-        <v>0.96</v>
+      <c r="G206" s="2">
+        <f t="shared" si="3"/>
+        <v>4.3914298401420959</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C207" s="1">
         <v>1304</v>
@@ -5404,16 +5631,17 @@
       <c r="F207" s="1">
         <v>16</v>
       </c>
-      <c r="G207" s="1">
-        <v>3.17</v>
+      <c r="G207" s="2">
+        <f t="shared" si="3"/>
+        <v>3.1780084369449382</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C208" s="1">
         <v>1395</v>
@@ -5427,16 +5655,17 @@
       <c r="F208" s="1">
         <v>28</v>
       </c>
-      <c r="G208" s="1">
-        <v>1.49</v>
+      <c r="G208" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4858221263638673</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C209" s="1">
         <v>375</v>
@@ -5450,16 +5679,17 @@
       <c r="F209" s="1">
         <v>9</v>
       </c>
-      <c r="G209" s="1">
-        <v>5.29</v>
+      <c r="G209" s="2">
+        <f t="shared" si="3"/>
+        <v>5.2645796329188874</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C210" s="1">
         <v>452</v>
@@ -5473,16 +5703,17 @@
       <c r="F210" s="1">
         <v>48</v>
       </c>
-      <c r="G210" s="1">
-        <v>0.76</v>
+      <c r="G210" s="2">
+        <f t="shared" si="3"/>
+        <v>0.75838837699822392</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C211" s="1">
         <v>598</v>
@@ -5496,16 +5727,17 @@
       <c r="F211" s="1">
         <v>27</v>
       </c>
-      <c r="G211" s="1">
-        <v>1.26</v>
+      <c r="G211" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2626430826919284</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C212" s="1">
         <v>649</v>
@@ -5519,16 +5751,17 @@
       <c r="F212" s="1">
         <v>59</v>
       </c>
-      <c r="G212" s="1">
-        <v>0.64</v>
+      <c r="G212" s="2">
+        <f t="shared" si="3"/>
+        <v>0.63658104283951</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C213" s="1">
         <v>6530</v>
@@ -5542,16 +5775,17 @@
       <c r="F213" s="1">
         <v>1</v>
       </c>
-      <c r="G213" s="1">
-        <v>48.29</v>
+      <c r="G213" s="2">
+        <f t="shared" si="3"/>
+        <v>50.270315275310836</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214" s="1">
         <v>6575</v>
@@ -5565,16 +5799,17 @@
       <c r="F214" s="1">
         <v>28</v>
       </c>
-      <c r="G214" s="1">
-        <v>1.55</v>
+      <c r="G214" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5477313816290281</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" s="1">
         <v>6708</v>
@@ -5588,16 +5823,17 @@
       <c r="F215" s="1">
         <v>28</v>
       </c>
-      <c r="G215" s="1">
-        <v>1.57</v>
+      <c r="G215" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5683678000507488</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C216" s="1">
         <v>6897</v>
@@ -5611,16 +5847,17 @@
       <c r="F216" s="1">
         <v>25</v>
       </c>
-      <c r="G216" s="1">
-        <v>1.48</v>
+      <c r="G216" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4792184724689166</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C217" s="1">
         <v>1301</v>
@@ -5634,16 +5871,17 @@
       <c r="F217" s="1">
         <v>15</v>
       </c>
-      <c r="G217" s="1">
-        <v>2.54</v>
+      <c r="G217" s="2">
+        <f t="shared" si="3"/>
+        <v>2.5424067495559508</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218" s="1">
         <v>1842</v>
@@ -5657,16 +5895,17 @@
       <c r="F218" s="1">
         <v>15</v>
       </c>
-      <c r="G218" s="1">
-        <v>3.01</v>
+      <c r="G218" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0046625222024872</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C219" s="1">
         <v>932</v>
@@ -5680,16 +5919,17 @@
       <c r="F219" s="1">
         <v>35</v>
       </c>
-      <c r="G219" s="1">
-        <v>1.06</v>
+      <c r="G219" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0565846231920832</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220" s="1">
         <v>981</v>
@@ -5703,16 +5943,17 @@
       <c r="F220" s="1">
         <v>67</v>
       </c>
-      <c r="G220" s="1">
-        <v>0.56999999999999995</v>
+      <c r="G220" s="2">
+        <f t="shared" si="3"/>
+        <v>0.56919554094536207</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C221" s="1">
         <v>1203</v>
@@ -5726,16 +5967,17 @@
       <c r="F221" s="1">
         <v>61</v>
       </c>
-      <c r="G221" s="1">
-        <v>0.63</v>
+      <c r="G221" s="2">
+        <f t="shared" si="3"/>
+        <v>0.63465444195323661</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C222" s="1">
         <v>1394</v>
@@ -5749,16 +5991,17 @@
       <c r="F222" s="1">
         <v>44</v>
       </c>
-      <c r="G222" s="1">
-        <v>0.85</v>
+      <c r="G222" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8535973074438884</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" s="1">
         <v>3867</v>
@@ -5772,16 +6015,17 @@
       <c r="F223" s="1">
         <v>26</v>
       </c>
-      <c r="G223" s="1">
-        <v>1.38</v>
+      <c r="G223" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3778777838502529</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224" s="1">
         <v>3898</v>
@@ -5795,16 +6039,17 @@
       <c r="F224" s="1">
         <v>39</v>
       </c>
-      <c r="G224" s="1">
-        <v>1.04</v>
+      <c r="G224" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0371123104249216</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225" s="1">
         <v>4045</v>
@@ -5818,16 +6063,17 @@
       <c r="F225" s="1">
         <v>46</v>
       </c>
-      <c r="G225" s="1">
-        <v>0.84</v>
+      <c r="G225" s="2">
+        <f t="shared" si="3"/>
+        <v>0.84160697737277024</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" s="1">
         <v>4183</v>
@@ -5841,16 +6087,17 @@
       <c r="F226" s="1">
         <v>46</v>
       </c>
-      <c r="G226" s="1">
-        <v>0.84</v>
+      <c r="G226" s="2">
+        <f t="shared" si="3"/>
+        <v>0.84160697737277024</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C227" s="1">
         <v>4262</v>
@@ -5864,16 +6111,17 @@
       <c r="F227" s="1">
         <v>36</v>
       </c>
-      <c r="G227" s="1">
-        <v>1.2</v>
+      <c r="G227" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2037910746003555</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C228" s="1">
         <v>3511</v>
@@ -5887,16 +6135,17 @@
       <c r="F228" s="1">
         <v>27</v>
       </c>
-      <c r="G228" s="1">
-        <v>1.65</v>
+      <c r="G228" s="2">
+        <f t="shared" si="3"/>
+        <v>1.647856226564042</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C229" s="1">
         <v>3778</v>
@@ -5910,14 +6159,17 @@
       <c r="F229" s="1">
         <v>30</v>
       </c>
-      <c r="G229" s="1"/>
+      <c r="G229" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6756771758436946</v>
+      </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C230" s="1">
         <v>1831</v>
@@ -5931,14 +6183,17 @@
       <c r="F230" s="1">
         <v>60</v>
       </c>
-      <c r="G230" s="1"/>
+      <c r="G230" s="2">
+        <f t="shared" si="3"/>
+        <v>0.56818938721136769</v>
+      </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C231" s="1">
         <v>1957</v>
@@ -5952,14 +6207,17 @@
       <c r="F231" s="1">
         <v>69</v>
       </c>
-      <c r="G231" s="1"/>
+      <c r="G231" s="2">
+        <f t="shared" si="3"/>
+        <v>0.34334214997297091</v>
+      </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C232" s="1">
         <v>1225</v>
@@ -5973,14 +6231,17 @@
       <c r="F232" s="1">
         <v>8</v>
       </c>
-      <c r="G232" s="1"/>
+      <c r="G232" s="2">
+        <f t="shared" si="3"/>
+        <v>6.2837894094138544</v>
+      </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233" s="1">
         <v>1257</v>
@@ -5994,14 +6255,17 @@
       <c r="F233" s="1">
         <v>126</v>
       </c>
-      <c r="G233" s="1"/>
+      <c r="G233" s="2">
+        <f t="shared" si="3"/>
+        <v>0.31642508246637918</v>
+      </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C234" s="1">
         <v>1446</v>
@@ -6015,14 +6279,17 @@
       <c r="F234" s="1">
         <v>70</v>
       </c>
-      <c r="G234" s="1"/>
+      <c r="G234" s="2">
+        <f t="shared" si="3"/>
+        <v>0.54480144633341798</v>
+      </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" s="1">
         <v>1558</v>
@@ -6036,14 +6303,17 @@
       <c r="F235" s="1">
         <v>56</v>
       </c>
-      <c r="G235" s="1"/>
+      <c r="G235" s="2">
+        <f t="shared" si="3"/>
+        <v>0.61909255265161134</v>
+      </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C236" s="1">
         <v>1785</v>
@@ -6057,14 +6327,17 @@
       <c r="F236" s="1">
         <v>4</v>
       </c>
-      <c r="G236" s="1"/>
+      <c r="G236" s="2">
+        <f t="shared" si="3"/>
+        <v>10.978574600355241</v>
+      </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" s="1">
         <v>1823</v>
@@ -6078,14 +6351,17 @@
       <c r="F237" s="1">
         <v>32</v>
       </c>
-      <c r="G237" s="1"/>
+      <c r="G237" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3723218250444051</v>
+      </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" s="1">
         <v>1977</v>
@@ -6099,14 +6375,17 @@
       <c r="F238" s="1">
         <v>27</v>
       </c>
-      <c r="G238" s="1"/>
+      <c r="G238" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5622533057035723</v>
+      </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C239" s="1">
         <v>2310</v>
@@ -6120,14 +6399,17 @@
       <c r="F239" s="1">
         <v>28</v>
       </c>
-      <c r="G239" s="1"/>
+      <c r="G239" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2175486868815022</v>
+      </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C240" s="1">
         <v>2106</v>
@@ -6141,14 +6423,17 @@
       <c r="F240" s="1">
         <v>2</v>
       </c>
-      <c r="G240" s="1"/>
+      <c r="G240" s="2">
+        <f t="shared" si="3"/>
+        <v>20.512599911190055</v>
+      </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C241" s="1">
         <v>2137</v>
@@ -6162,14 +6447,17 @@
       <c r="F241" s="1">
         <v>26</v>
       </c>
-      <c r="G241" s="1"/>
+      <c r="G241" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7556829826479028</v>
+      </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C242" s="1">
         <v>2162</v>
@@ -6183,14 +6471,17 @@
       <c r="F242" s="1">
         <v>15</v>
       </c>
-      <c r="G242" s="1"/>
+      <c r="G242" s="2">
+        <f t="shared" si="3"/>
+        <v>2.9661412078152756</v>
+      </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" s="1">
         <v>2345</v>
@@ -6204,14 +6495,17 @@
       <c r="F243" s="1">
         <v>28</v>
       </c>
-      <c r="G243" s="1"/>
+      <c r="G243" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3620036158335451</v>
+      </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C244" s="1">
         <v>2499</v>
@@ -6225,14 +6519,17 @@
       <c r="F244" s="1">
         <v>19</v>
       </c>
-      <c r="G244" s="1"/>
+      <c r="G244" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9767516593437415</v>
+      </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C245" s="1">
         <v>2126</v>
@@ -6246,14 +6543,17 @@
       <c r="F245" s="1">
         <v>30</v>
       </c>
-      <c r="G245" s="1"/>
+      <c r="G245" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2134214031971582</v>
+      </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C246" s="1">
         <v>2164</v>
@@ -6267,14 +6567,17 @@
       <c r="F246" s="1">
         <v>31</v>
       </c>
-      <c r="G246" s="1"/>
+      <c r="G246" s="2">
+        <f t="shared" si="3"/>
+        <v>1.211557468630035</v>
+      </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" s="1">
         <v>2220</v>
@@ -6288,14 +6591,17 @@
       <c r="F247" s="1">
         <v>34</v>
       </c>
-      <c r="G247" s="1"/>
+      <c r="G247" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2236182217114202</v>
+      </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C248" s="1">
         <v>2318</v>
@@ -6309,14 +6615,17 @@
       <c r="F248" s="1">
         <v>29</v>
       </c>
-      <c r="G248" s="1"/>
+      <c r="G248" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5342109695596253</v>
+      </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C249" s="1">
         <v>2409</v>
@@ -6330,14 +6639,17 @@
       <c r="F249" s="1">
         <v>26</v>
       </c>
-      <c r="G249" s="1"/>
+      <c r="G249" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4223254542970354</v>
+      </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" s="1">
         <v>2498</v>
@@ -6351,14 +6663,17 @@
       <c r="F250" s="1">
         <v>35</v>
       </c>
-      <c r="G250" s="1"/>
+      <c r="G250" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3207307789901042</v>
+      </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C251" s="1">
         <v>1426</v>
@@ -6372,14 +6687,17 @@
       <c r="F251" s="1">
         <v>11</v>
       </c>
-      <c r="G251" s="1"/>
+      <c r="G251" s="2">
+        <f t="shared" si="3"/>
+        <v>4.2548542709510739</v>
+      </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C252" s="1">
         <v>1651</v>
@@ -6393,14 +6711,17 @@
       <c r="F252" s="1">
         <v>21</v>
       </c>
-      <c r="G252" s="1"/>
+      <c r="G252" s="2">
+        <f t="shared" si="3"/>
+        <v>2.6414615579802083</v>
+      </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C253" s="1">
         <v>555</v>
@@ -6414,14 +6735,17 @@
       <c r="F253" s="1">
         <v>44</v>
       </c>
-      <c r="G253" s="1"/>
+      <c r="G253" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7748037098336833</v>
+      </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C254" s="1">
         <v>593</v>
@@ -6435,14 +6759,17 @@
       <c r="F254" s="1">
         <v>58</v>
       </c>
-      <c r="G254" s="1"/>
+      <c r="G254" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5778197158081706</v>
+      </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C255" s="1">
         <v>663</v>
@@ -6456,14 +6783,17 @@
       <c r="F255" s="1">
         <v>86</v>
       </c>
-      <c r="G255" s="1"/>
+      <c r="G255" s="2">
+        <f t="shared" si="3"/>
+        <v>0.36281703085629319</v>
+      </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C256" s="1">
         <v>325</v>
@@ -6477,14 +6807,17 @@
       <c r="F256" s="1">
         <v>24</v>
       </c>
-      <c r="G256" s="1"/>
+      <c r="G256" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2519427175843696</v>
+      </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C257" s="1">
         <v>342</v>
@@ -6498,14 +6831,17 @@
       <c r="F257" s="1">
         <v>50</v>
       </c>
-      <c r="G257" s="1"/>
+      <c r="G257" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7511656305506218</v>
+      </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C258" s="1">
         <v>370</v>
@@ -6519,14 +6855,17 @@
       <c r="F258" s="1">
         <v>60</v>
       </c>
-      <c r="G258" s="1"/>
+      <c r="G258" s="2">
+        <f t="shared" si="3"/>
+        <v>0.4141041296625223</v>
+      </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C259" s="1">
         <v>447</v>
@@ -6540,14 +6879,17 @@
       <c r="F259" s="1">
         <v>64</v>
       </c>
-      <c r="G259" s="1"/>
+      <c r="G259" s="2">
+        <f t="shared" ref="G259:G322" si="4">E259/F259*10.41/18.016</f>
+        <v>0.53267755051065724</v>
+      </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C260" s="1">
         <v>524</v>
@@ -6561,14 +6903,17 @@
       <c r="F260" s="1">
         <v>45</v>
       </c>
-      <c r="G260" s="1"/>
+      <c r="G260" s="2">
+        <f t="shared" si="4"/>
+        <v>0.78326672587329793</v>
+      </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C261" s="1">
         <v>755</v>
@@ -6582,14 +6927,17 @@
       <c r="F261" s="1">
         <v>1</v>
       </c>
-      <c r="G261" s="1"/>
+      <c r="G261" s="2">
+        <f t="shared" si="4"/>
+        <v>54.315053285968034</v>
+      </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C262" s="1">
         <v>4607</v>
@@ -6603,14 +6951,17 @@
       <c r="F262" s="1">
         <v>1</v>
       </c>
-      <c r="G262" s="1"/>
+      <c r="G262" s="2">
+        <f t="shared" si="4"/>
+        <v>57.204151865008882</v>
+      </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C263" s="1">
         <v>4750</v>
@@ -6624,14 +6975,17 @@
       <c r="F263" s="1">
         <v>4</v>
       </c>
-      <c r="G263" s="1"/>
+      <c r="G263" s="2">
+        <f t="shared" si="4"/>
+        <v>11.267484458259327</v>
+      </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C264" s="1">
         <v>4841</v>
@@ -6645,14 +6999,17 @@
       <c r="F264" s="1">
         <v>10</v>
       </c>
-      <c r="G264" s="1"/>
+      <c r="G264" s="2">
+        <f t="shared" si="4"/>
+        <v>4.9692495559502667</v>
+      </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C265" s="1">
         <v>4946</v>
@@ -6666,14 +7023,17 @@
       <c r="F265" s="1">
         <v>17</v>
       </c>
-      <c r="G265" s="1"/>
+      <c r="G265" s="2">
+        <f t="shared" si="4"/>
+        <v>2.719151603803156</v>
+      </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C266" s="1">
         <v>5045</v>
@@ -6687,14 +7047,17 @@
       <c r="F266" s="1">
         <v>7</v>
       </c>
-      <c r="G266" s="1"/>
+      <c r="G266" s="2">
+        <f t="shared" si="4"/>
+        <v>7.3465649581324532</v>
+      </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C267" s="1">
         <v>3684</v>
@@ -6708,14 +7071,17 @@
       <c r="F267" s="1">
         <v>33</v>
       </c>
-      <c r="G267" s="1"/>
+      <c r="G267" s="2">
+        <f t="shared" si="4"/>
+        <v>0.945523171322461</v>
+      </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C268" s="1">
         <v>3721</v>
@@ -6729,14 +7095,17 @@
       <c r="F268" s="1">
         <v>33</v>
       </c>
-      <c r="G268" s="1"/>
+      <c r="G268" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2081684966898112</v>
+      </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C269" s="1">
         <v>3826</v>
@@ -6750,14 +7119,17 @@
       <c r="F269" s="1">
         <v>15</v>
       </c>
-      <c r="G269" s="1"/>
+      <c r="G269" s="2">
+        <f t="shared" si="4"/>
+        <v>3.0431838365896984</v>
+      </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C270" s="1">
         <v>636</v>
@@ -6771,14 +7143,17 @@
       <c r="F270" s="1">
         <v>22</v>
       </c>
-      <c r="G270" s="1"/>
+      <c r="G270" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3112788632326824</v>
+      </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C271" s="1">
         <v>727</v>
@@ -6792,14 +7167,17 @@
       <c r="F271" s="1">
         <v>33</v>
       </c>
-      <c r="G271" s="1"/>
+      <c r="G271" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8735366542870984</v>
+      </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C272" s="1">
         <v>809</v>
@@ -6813,14 +7191,17 @@
       <c r="F272" s="1">
         <v>36</v>
       </c>
-      <c r="G272" s="1"/>
+      <c r="G272" s="2">
+        <f t="shared" si="4"/>
+        <v>1.5408525754884548</v>
+      </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C273" s="1">
         <v>1550</v>
@@ -6834,14 +7215,17 @@
       <c r="F273" s="1">
         <v>18</v>
       </c>
-      <c r="G273" s="1"/>
+      <c r="G273" s="2">
+        <f t="shared" si="4"/>
+        <v>2.5359865304914155</v>
+      </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C274" s="1">
         <v>1711</v>
@@ -6855,14 +7239,17 @@
       <c r="F274" s="1">
         <v>19</v>
       </c>
-      <c r="G274" s="1"/>
+      <c r="G274" s="2">
+        <f t="shared" si="4"/>
+        <v>2.7674523230812382</v>
+      </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C275" s="1">
         <v>1818</v>
@@ -6876,14 +7263,17 @@
       <c r="F275" s="1">
         <v>22</v>
       </c>
-      <c r="G275" s="1"/>
+      <c r="G275" s="2">
+        <f t="shared" si="4"/>
+        <v>2.5213951235265624</v>
+      </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C276" s="1">
         <v>2015</v>
@@ -6897,14 +7287,17 @@
       <c r="F276" s="1">
         <v>29</v>
       </c>
-      <c r="G276" s="1"/>
+      <c r="G276" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6139102407055799</v>
+      </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C277" s="1">
         <v>1327</v>
@@ -6918,14 +7311,17 @@
       <c r="F277" s="1">
         <v>11</v>
       </c>
-      <c r="G277" s="1"/>
+      <c r="G277" s="2">
+        <f t="shared" si="4"/>
+        <v>4.2548542709510739</v>
+      </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C278" s="1">
         <v>1365</v>
@@ -6939,14 +7335,17 @@
       <c r="F278" s="1">
         <v>42</v>
       </c>
-      <c r="G278" s="1"/>
+      <c r="G278" s="2">
+        <f t="shared" si="4"/>
+        <v>0.72915345090078665</v>
+      </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C279" s="1">
         <v>1589</v>
@@ -6960,14 +7359,17 @@
       <c r="F279" s="1">
         <v>48</v>
       </c>
-      <c r="G279" s="1"/>
+      <c r="G279" s="2">
+        <f t="shared" si="4"/>
+        <v>0.83061584147424528</v>
+      </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C280" s="1">
         <v>2827</v>
@@ -6981,14 +7383,17 @@
       <c r="F280" s="1">
         <v>7</v>
       </c>
-      <c r="G280" s="1"/>
+      <c r="G280" s="2">
+        <f t="shared" si="4"/>
+        <v>6.1909255265161125</v>
+      </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C281" s="1">
         <v>2858</v>
@@ -7002,14 +7407,17 @@
       <c r="F281" s="1">
         <v>52</v>
       </c>
-      <c r="G281" s="1"/>
+      <c r="G281" s="2">
+        <f t="shared" si="4"/>
+        <v>0.85561765610056029</v>
+      </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C282" s="1">
         <v>2921</v>
@@ -7023,14 +7431,17 @@
       <c r="F282" s="1">
         <v>48</v>
       </c>
-      <c r="G282" s="1"/>
+      <c r="G282" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98710868117229122</v>
+      </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C283" s="1">
         <v>3012</v>
@@ -7044,14 +7455,17 @@
       <c r="F283" s="1">
         <v>48</v>
       </c>
-      <c r="G283" s="1"/>
+      <c r="G283" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0232224134103021</v>
+      </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C284" s="1">
         <v>3103</v>
@@ -7065,14 +7479,17 @@
       <c r="F284" s="1">
         <v>45</v>
       </c>
-      <c r="G284" s="1"/>
+      <c r="G284" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0143946121965661</v>
+      </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C285" s="1">
         <v>2748</v>
@@ -7086,14 +7503,17 @@
       <c r="F285" s="1">
         <v>8</v>
       </c>
-      <c r="G285" s="1"/>
+      <c r="G285" s="2">
+        <f t="shared" si="4"/>
+        <v>6.5004718028419184</v>
+      </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C286" s="1">
         <v>2776</v>
@@ -7107,14 +7527,17 @@
       <c r="F286" s="1">
         <v>24</v>
       </c>
-      <c r="G286" s="1"/>
+      <c r="G286" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9019898978685614</v>
+      </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C287" s="1">
         <v>2846</v>
@@ -7128,14 +7551,17 @@
       <c r="F287" s="1">
         <v>30</v>
       </c>
-      <c r="G287" s="1"/>
+      <c r="G287" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4830706039076378</v>
+      </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C288" s="1">
         <v>2937</v>
@@ -7149,14 +7575,17 @@
       <c r="F288" s="1">
         <v>47</v>
       </c>
-      <c r="G288" s="1"/>
+      <c r="G288" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0818752125770001</v>
+      </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C289" s="1">
         <v>3028</v>
@@ -7170,14 +7599,17 @@
       <c r="F289" s="1">
         <v>42</v>
       </c>
-      <c r="G289" s="1"/>
+      <c r="G289" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0043056965237251</v>
+      </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C290" s="1">
         <v>3127</v>
@@ -7191,14 +7623,17 @@
       <c r="F290" s="1">
         <v>42</v>
       </c>
-      <c r="G290" s="1"/>
+      <c r="G290" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2519427175843696</v>
+      </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C291" s="1">
         <v>1571</v>
@@ -7212,14 +7647,17 @@
       <c r="F291" s="1">
         <v>5</v>
       </c>
-      <c r="G291" s="1"/>
+      <c r="G291" s="2">
+        <f t="shared" si="4"/>
+        <v>8.8984236234458258</v>
+      </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C292" s="1">
         <v>1599</v>
@@ -7233,14 +7671,17 @@
       <c r="F292" s="1">
         <v>34</v>
       </c>
-      <c r="G292" s="1"/>
+      <c r="G292" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98569245637864389</v>
+      </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C293" s="1">
         <v>1690</v>
@@ -7254,14 +7695,17 @@
       <c r="F293" s="1">
         <v>14</v>
       </c>
-      <c r="G293" s="1"/>
+      <c r="G293" s="2">
+        <f t="shared" si="4"/>
+        <v>2.5176430474498859</v>
+      </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C294" s="1">
         <v>1843</v>
@@ -7275,14 +7719,17 @@
       <c r="F294" s="1">
         <v>19</v>
       </c>
-      <c r="G294" s="1"/>
+      <c r="G294" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3112788632326824</v>
+      </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C295" s="1">
         <v>670</v>
@@ -7296,14 +7743,17 @@
       <c r="F295" s="1">
         <v>14</v>
       </c>
-      <c r="G295" s="1"/>
+      <c r="G295" s="2">
+        <f t="shared" si="4"/>
+        <v>3.0954627632580562</v>
+      </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C296" s="1">
         <v>713</v>
@@ -7317,14 +7767,17 @@
       <c r="F296" s="1">
         <v>77</v>
       </c>
-      <c r="G296" s="1"/>
+      <c r="G296" s="2">
+        <f t="shared" si="4"/>
+        <v>0.45775328135452475</v>
+      </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C297" s="1">
         <v>806</v>
@@ -7338,14 +7791,17 @@
       <c r="F297" s="1">
         <v>81</v>
       </c>
-      <c r="G297" s="1"/>
+      <c r="G297" s="2">
+        <f t="shared" si="4"/>
+        <v>0.47081606473258336</v>
+      </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C298" s="1">
         <v>897</v>
@@ -7359,14 +7815,17 @@
       <c r="F298" s="1">
         <v>62</v>
       </c>
-      <c r="G298" s="1"/>
+      <c r="G298" s="2">
+        <f t="shared" si="4"/>
+        <v>0.7082951355067898</v>
+      </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C299" s="1">
         <v>1002</v>
@@ -7380,14 +7839,17 @@
       <c r="F299" s="1">
         <v>55</v>
       </c>
-      <c r="G299" s="1"/>
+      <c r="G299" s="2">
+        <f t="shared" si="4"/>
+        <v>0.64085459389633459</v>
+      </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C300" s="1">
         <v>1121</v>
@@ -7401,14 +7863,17 @@
       <c r="F300" s="1">
         <v>50</v>
       </c>
-      <c r="G300" s="1"/>
+      <c r="G300" s="2">
+        <f t="shared" si="4"/>
+        <v>0.82050399644760219</v>
+      </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C301" s="1">
         <v>613</v>
@@ -7422,14 +7887,17 @@
       <c r="F301" s="1">
         <v>2</v>
       </c>
-      <c r="G301" s="1"/>
+      <c r="G301" s="2">
+        <f t="shared" si="4"/>
+        <v>23.690608348134994</v>
+      </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C302" s="1">
         <v>637</v>
@@ -7443,14 +7911,17 @@
       <c r="F302" s="1">
         <v>52</v>
       </c>
-      <c r="G302" s="1"/>
+      <c r="G302" s="2">
+        <f t="shared" si="4"/>
+        <v>0.65560313909003964</v>
+      </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C303" s="1">
         <v>700</v>
@@ -7464,14 +7935,17 @@
       <c r="F303" s="1">
         <v>41</v>
       </c>
-      <c r="G303" s="1"/>
+      <c r="G303" s="2">
+        <f t="shared" si="4"/>
+        <v>0.88786931941255476</v>
+      </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C304" s="1">
         <v>791</v>
@@ -7485,14 +7959,17 @@
       <c r="F304" s="1">
         <v>46</v>
       </c>
-      <c r="G304" s="1"/>
+      <c r="G304" s="2">
+        <f t="shared" si="4"/>
+        <v>0.74111659201482738</v>
+      </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C305" s="1">
         <v>882</v>
@@ -7506,14 +7983,17 @@
       <c r="F305" s="1">
         <v>51</v>
       </c>
-      <c r="G305" s="1"/>
+      <c r="G305" s="2">
+        <f t="shared" si="4"/>
+        <v>0.7137772959983284</v>
+      </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C306" s="1">
         <v>987</v>
@@ -7527,14 +8007,17 @@
       <c r="F306" s="1">
         <v>45</v>
       </c>
-      <c r="G306" s="1"/>
+      <c r="G306" s="2">
+        <f t="shared" si="4"/>
+        <v>0.74474541148608653</v>
+      </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C307" s="1">
         <v>6593</v>
@@ -7548,14 +8031,17 @@
       <c r="F307" s="1">
         <v>7</v>
       </c>
-      <c r="G307" s="1"/>
+      <c r="G307" s="2">
+        <f t="shared" si="4"/>
+        <v>6.3560168738898764</v>
+      </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C308" s="1">
         <v>6622</v>
@@ -7569,14 +8055,17 @@
       <c r="F308" s="1">
         <v>12</v>
       </c>
-      <c r="G308" s="1"/>
+      <c r="G308" s="2">
+        <f t="shared" si="4"/>
+        <v>4.0928896536412083</v>
+      </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C309" s="1">
         <v>6685</v>
@@ -7590,14 +8079,17 @@
       <c r="F309" s="1">
         <v>7</v>
       </c>
-      <c r="G309" s="1"/>
+      <c r="G309" s="2">
+        <f t="shared" si="4"/>
+        <v>7.676747652879981</v>
+      </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C310" s="1">
         <v>6776</v>
@@ -7611,14 +8103,17 @@
       <c r="F310" s="1">
         <v>9</v>
       </c>
-      <c r="G310" s="1"/>
+      <c r="G310" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6225577264653648</v>
+      </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C311" s="1">
         <v>6867</v>
@@ -7632,14 +8127,17 @@
       <c r="F311" s="1">
         <v>22</v>
       </c>
-      <c r="G311" s="1"/>
+      <c r="G311" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2062207330857424</v>
+      </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C312" s="1">
         <v>6965</v>
@@ -7653,14 +8151,17 @@
       <c r="F312" s="1">
         <v>23</v>
       </c>
-      <c r="G312" s="1"/>
+      <c r="G312" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3615240559116542</v>
+      </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C313" s="1">
         <v>1804</v>
@@ -7674,14 +8175,17 @@
       <c r="F313" s="1">
         <v>15</v>
       </c>
-      <c r="G313" s="1"/>
+      <c r="G313" s="2">
+        <f t="shared" si="4"/>
+        <v>2.080150976909414</v>
+      </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C314" s="1">
         <v>1911</v>
@@ -7695,14 +8199,17 @@
       <c r="F314" s="1">
         <v>35</v>
       </c>
-      <c r="G314" s="1"/>
+      <c r="G314" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1226211621415885</v>
+      </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C315" s="1">
         <v>2023</v>
@@ -7716,14 +8223,17 @@
       <c r="F315" s="1">
         <v>42</v>
       </c>
-      <c r="G315" s="1"/>
+      <c r="G315" s="2">
+        <f t="shared" si="4"/>
+        <v>0.93551763511799058</v>
+      </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C316" s="1">
         <v>2093</v>
@@ -7737,14 +8247,17 @@
       <c r="F316" s="1">
         <v>67</v>
       </c>
-      <c r="G316" s="1"/>
+      <c r="G316" s="2">
+        <f t="shared" si="4"/>
+        <v>0.56057136608255353</v>
+      </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C317" s="1">
         <v>2251</v>
@@ -7758,14 +8271,17 @@
       <c r="F317" s="1">
         <v>0</v>
       </c>
-      <c r="G317" s="1"/>
+      <c r="G317" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C318" s="1">
         <v>2283</v>
@@ -7779,14 +8295,17 @@
       <c r="F318" s="1">
         <v>4</v>
       </c>
-      <c r="G318" s="1"/>
+      <c r="G318" s="2">
+        <f t="shared" si="4"/>
+        <v>9.5340253108348154</v>
+      </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C319" s="1">
         <v>2346</v>
@@ -7800,14 +8319,17 @@
       <c r="F319" s="1">
         <v>33</v>
       </c>
-      <c r="G319" s="1"/>
+      <c r="G319" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3132266268367514</v>
+      </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C320" s="1">
         <v>2482</v>
@@ -7821,14 +8343,17 @@
       <c r="F320" s="1">
         <v>30</v>
       </c>
-      <c r="G320" s="1"/>
+      <c r="G320" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4830706039076378</v>
+      </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C321" s="1">
         <v>2577</v>
@@ -7842,14 +8367,17 @@
       <c r="F321" s="1">
         <v>26</v>
       </c>
-      <c r="G321" s="1"/>
+      <c r="G321" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4223254542970354</v>
+      </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C322" s="1">
         <v>2864</v>
@@ -7863,14 +8391,17 @@
       <c r="F322" s="1">
         <v>36</v>
       </c>
-      <c r="G322" s="1"/>
+      <c r="G322" s="2">
+        <f t="shared" si="4"/>
+        <v>1.139588883955003</v>
+      </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C323" s="1">
         <v>888</v>
@@ -7884,14 +8415,17 @@
       <c r="F323" s="1">
         <v>45</v>
       </c>
-      <c r="G323" s="1"/>
+      <c r="G323" s="2">
+        <f t="shared" ref="G323:G381" si="5">E323/F323*10.41/18.016</f>
+        <v>0.75758584961515696</v>
+      </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C324" s="1">
         <v>987</v>
@@ -7905,14 +8439,17 @@
       <c r="F324" s="1">
         <v>37</v>
       </c>
-      <c r="G324" s="1"/>
+      <c r="G324" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0463221880850655</v>
+      </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C325" s="1">
         <v>1206</v>
@@ -7926,14 +8463,17 @@
       <c r="F325" s="1">
         <v>49</v>
       </c>
-      <c r="G325" s="1"/>
+      <c r="G325" s="2">
+        <f t="shared" si="5"/>
+        <v>0.83724897596694103</v>
+      </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C326" s="1">
         <v>1297</v>
@@ -7947,14 +8487,17 @@
       <c r="F326" s="1">
         <v>50</v>
       </c>
-      <c r="G326" s="1"/>
+      <c r="G326" s="2">
+        <f t="shared" si="5"/>
+        <v>0.9129551509769096</v>
+      </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C327" s="1">
         <v>4025</v>
@@ -7968,14 +8511,17 @@
       <c r="F327" s="1">
         <v>15</v>
       </c>
-      <c r="G327" s="1"/>
+      <c r="G327" s="2">
+        <f t="shared" si="5"/>
+        <v>2.5038854351687392</v>
+      </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C328" s="1">
         <v>4077</v>
@@ -7989,14 +8535,17 @@
       <c r="F328" s="1">
         <v>69</v>
       </c>
-      <c r="G328" s="1"/>
+      <c r="G328" s="2">
+        <f t="shared" si="5"/>
+        <v>0.49407772800988503</v>
+      </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C329" s="1">
         <v>4140</v>
@@ -8010,14 +8559,17 @@
       <c r="F329" s="1">
         <v>50</v>
       </c>
-      <c r="G329" s="1"/>
+      <c r="G329" s="2">
+        <f t="shared" si="5"/>
+        <v>0.82050399644760219</v>
+      </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C330" s="1">
         <v>4245</v>
@@ -8031,14 +8583,17 @@
       <c r="F330" s="1">
         <v>54</v>
       </c>
-      <c r="G330" s="1"/>
+      <c r="G330" s="2">
+        <f t="shared" si="5"/>
+        <v>0.72762482731399258</v>
+      </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C331" s="1">
         <v>4497</v>
@@ -8052,14 +8607,17 @@
       <c r="F331" s="1">
         <v>45</v>
       </c>
-      <c r="G331" s="1"/>
+      <c r="G331" s="2">
+        <f t="shared" si="5"/>
+        <v>0.79610716400236836</v>
+      </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C332" s="1">
         <v>3903</v>
@@ -8073,14 +8631,17 @@
       <c r="F332" s="1">
         <v>46</v>
       </c>
-      <c r="G332" s="1"/>
+      <c r="G332" s="2">
+        <f t="shared" si="5"/>
+        <v>0.9044134682214845</v>
+      </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C333" s="1">
         <v>3998</v>
@@ -8094,14 +8655,17 @@
       <c r="F333" s="1">
         <v>40</v>
       </c>
-      <c r="G333" s="1"/>
+      <c r="G333" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0689664742451157</v>
+      </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C334" s="1">
         <v>4246</v>
@@ -8115,14 +8679,17 @@
       <c r="F334" s="1">
         <v>33</v>
       </c>
-      <c r="G334" s="1"/>
+      <c r="G334" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3482460035523982</v>
+      </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C335" s="1">
         <v>4393</v>
@@ -8136,14 +8703,17 @@
       <c r="F335" s="1">
         <v>45</v>
       </c>
-      <c r="G335" s="1"/>
+      <c r="G335" s="2">
+        <f t="shared" si="5"/>
+        <v>1.1042776791000595</v>
+      </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C336" s="1">
         <v>3730</v>
@@ -8157,14 +8727,17 @@
       <c r="F336" s="1">
         <v>5</v>
       </c>
-      <c r="G336" s="1"/>
+      <c r="G336" s="2">
+        <f t="shared" si="5"/>
+        <v>9.2451154529307296</v>
+      </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C337" s="1">
         <v>3765</v>
@@ -8178,14 +8751,17 @@
       <c r="F337" s="1">
         <v>44</v>
       </c>
-      <c r="G337" s="1"/>
+      <c r="G337" s="2">
+        <f t="shared" si="5"/>
+        <v>0.97178770385919599</v>
+      </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C338" s="1">
         <v>4054</v>
@@ -8199,14 +8775,17 @@
       <c r="F338" s="1">
         <v>34</v>
       </c>
-      <c r="G338" s="1"/>
+      <c r="G338" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4785386845679658</v>
+      </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C339" s="1">
         <v>4130</v>
@@ -8220,14 +8799,17 @@
       <c r="F339" s="1">
         <v>28</v>
       </c>
-      <c r="G339" s="1"/>
+      <c r="G339" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6509134737376303</v>
+      </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C340" s="1">
         <v>3315</v>
@@ -8241,14 +8823,17 @@
       <c r="F340" s="1">
         <v>2</v>
       </c>
-      <c r="G340" s="1"/>
+      <c r="G340" s="2">
+        <f t="shared" si="5"/>
+        <v>24.55733792184725</v>
+      </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C341" s="1">
         <v>3345</v>
@@ -8262,14 +8847,17 @@
       <c r="F341" s="1">
         <v>28</v>
       </c>
-      <c r="G341" s="1"/>
+      <c r="G341" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5890042184724691</v>
+      </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C342" s="1">
         <v>3401</v>
@@ -8283,14 +8871,17 @@
       <c r="F342" s="1">
         <v>37</v>
       </c>
-      <c r="G342" s="1"/>
+      <c r="G342" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0775556862368587</v>
+      </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C343" s="1">
         <v>3499</v>
@@ -8304,14 +8895,17 @@
       <c r="F343" s="1">
         <v>50</v>
       </c>
-      <c r="G343" s="1"/>
+      <c r="G343" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8551731793960925</v>
+      </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C344" s="1">
         <v>3597</v>
@@ -8325,14 +8919,17 @@
       <c r="F344" s="1">
         <v>32</v>
       </c>
-      <c r="G344" s="1"/>
+      <c r="G344" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6070610845914743</v>
+      </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C345" s="1">
         <v>3679</v>
@@ -8346,14 +8943,17 @@
       <c r="F345" s="1">
         <v>23</v>
       </c>
-      <c r="G345" s="1"/>
+      <c r="G345" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2610336705537111</v>
+      </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C346" s="1">
         <v>3800</v>
@@ -8367,14 +8967,17 @@
       <c r="F346" s="1">
         <v>4</v>
       </c>
-      <c r="G346" s="1"/>
+      <c r="G346" s="2">
+        <f t="shared" si="5"/>
+        <v>11.123029529307285</v>
+      </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C347" s="1">
         <v>1776</v>
@@ -8388,14 +8991,17 @@
       <c r="F347" s="1">
         <v>4</v>
       </c>
-      <c r="G347" s="1"/>
+      <c r="G347" s="2">
+        <f t="shared" si="5"/>
+        <v>11.989759103019539</v>
+      </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C348" s="1">
         <v>1796</v>
@@ -8409,14 +9015,17 @@
       <c r="F348" s="1">
         <v>4</v>
       </c>
-      <c r="G348" s="1"/>
+      <c r="G348" s="2">
+        <f t="shared" si="5"/>
+        <v>10.545209813499113</v>
+      </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C349" s="1">
         <v>1862</v>
@@ -8430,14 +9039,17 @@
       <c r="F349" s="1">
         <v>40</v>
       </c>
-      <c r="G349" s="1"/>
+      <c r="G349" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0689664742451157</v>
+      </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C350" s="1">
         <v>1946</v>
@@ -8451,14 +9063,17 @@
       <c r="F350" s="1">
         <v>36</v>
       </c>
-      <c r="G350" s="1"/>
+      <c r="G350" s="2">
+        <f t="shared" si="5"/>
+        <v>1.2519427175843696</v>
+      </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C351" s="1">
         <v>2048</v>
@@ -8472,14 +9087,17 @@
       <c r="F351" s="1">
         <v>50</v>
       </c>
-      <c r="G351" s="1"/>
+      <c r="G351" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8898423623445828</v>
+      </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C352" s="1">
         <v>2139</v>
@@ -8493,14 +9111,17 @@
       <c r="F352" s="1">
         <v>26</v>
       </c>
-      <c r="G352" s="1"/>
+      <c r="G352" s="2">
+        <f t="shared" si="5"/>
+        <v>1.9112498292116413</v>
+      </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C353" s="1">
         <v>2230</v>
@@ -8514,14 +9135,17 @@
       <c r="F353" s="1">
         <v>26</v>
       </c>
-      <c r="G353" s="1"/>
+      <c r="G353" s="2">
+        <f t="shared" si="5"/>
+        <v>1.8445783235414679</v>
+      </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C354" s="1">
         <v>1678</v>
@@ -8535,14 +9159,17 @@
       <c r="F354" s="1">
         <v>4</v>
       </c>
-      <c r="G354" s="1"/>
+      <c r="G354" s="2">
+        <f t="shared" si="5"/>
+        <v>11.845304174067497</v>
+      </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C355" s="1">
         <v>1779</v>
@@ -8556,14 +9183,17 @@
       <c r="F355" s="1">
         <v>8</v>
       </c>
-      <c r="G355" s="1"/>
+      <c r="G355" s="2">
+        <f t="shared" si="5"/>
+        <v>5.9948795515097695</v>
+      </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C356" s="1">
         <v>2044</v>
@@ -8577,14 +9207,17 @@
       <c r="F356" s="1">
         <v>2</v>
       </c>
-      <c r="G356" s="1"/>
+      <c r="G356" s="2">
+        <f t="shared" si="5"/>
+        <v>22.24605905861457</v>
+      </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C357" s="1">
         <v>3787</v>
@@ -8598,14 +9231,17 @@
       <c r="F357" s="1">
         <v>17</v>
       </c>
-      <c r="G357" s="1"/>
+      <c r="G357" s="2">
+        <f t="shared" si="5"/>
+        <v>2.6851622087556164</v>
+      </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C358" s="1">
         <v>4079</v>
@@ -8619,14 +9255,17 @@
       <c r="F358" s="1">
         <v>39</v>
       </c>
-      <c r="G358" s="1"/>
+      <c r="G358" s="2">
+        <f t="shared" si="5"/>
+        <v>0.93340107938242933</v>
+      </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C359" s="1">
         <v>4179</v>
@@ -8640,14 +9279,17 @@
       <c r="F359" s="1">
         <v>3</v>
       </c>
-      <c r="G359" s="1"/>
+      <c r="G359" s="2">
+        <f t="shared" si="5"/>
+        <v>15.023312611012436</v>
+      </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C360" s="1">
         <v>7420</v>
@@ -8661,14 +9303,17 @@
       <c r="F360" s="1">
         <v>59</v>
       </c>
-      <c r="G360" s="1"/>
+      <c r="G360" s="2">
+        <f t="shared" si="5"/>
+        <v>0.65616815184995647</v>
+      </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C361" s="1">
         <v>7698</v>
@@ -8682,14 +9327,17 @@
       <c r="F361" s="1">
         <v>23</v>
       </c>
-      <c r="G361" s="1"/>
+      <c r="G361" s="2">
+        <f t="shared" si="5"/>
+        <v>1.2310072206347984</v>
+      </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C362" s="1">
         <v>8644</v>
@@ -8703,14 +9351,17 @@
       <c r="F362" s="1">
         <v>2</v>
       </c>
-      <c r="G362" s="1"/>
+      <c r="G362" s="2">
+        <f t="shared" si="5"/>
+        <v>26.001887211367674</v>
+      </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C363" s="1">
         <v>8864</v>
@@ -8724,14 +9375,17 @@
       <c r="F363" s="1">
         <v>8</v>
       </c>
-      <c r="G363" s="1"/>
+      <c r="G363" s="2">
+        <f t="shared" si="5"/>
+        <v>5.9226520870337485</v>
+      </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C364" s="1">
         <v>3952</v>
@@ -8745,14 +9399,17 @@
       <c r="F364" s="1">
         <v>6</v>
       </c>
-      <c r="G364" s="1"/>
+      <c r="G364" s="2">
+        <f t="shared" si="5"/>
+        <v>7.9931727353463593</v>
+      </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C365" s="1">
         <v>4327</v>
@@ -8766,14 +9423,17 @@
       <c r="F365" s="1">
         <v>44</v>
       </c>
-      <c r="G365" s="1"/>
+      <c r="G365" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0374490352010335</v>
+      </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C366" s="1">
         <v>5152</v>
@@ -8787,14 +9447,17 @@
       <c r="F366" s="1">
         <v>1</v>
       </c>
-      <c r="G366" s="1"/>
+      <c r="G366" s="2">
+        <f t="shared" si="5"/>
+        <v>50.848134991119011</v>
+      </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C367" s="1">
         <v>5673</v>
@@ -8808,14 +9471,17 @@
       <c r="F367" s="1">
         <v>17</v>
       </c>
-      <c r="G367" s="1"/>
+      <c r="G367" s="2">
+        <f t="shared" si="5"/>
+        <v>3.1610137394211688</v>
+      </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C368" s="1">
         <v>6752</v>
@@ -8829,14 +9495,17 @@
       <c r="F368" s="1">
         <v>10</v>
       </c>
-      <c r="G368" s="1"/>
+      <c r="G368" s="2">
+        <f t="shared" si="5"/>
+        <v>4.7381216696269988</v>
+      </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C369" s="1">
         <v>7056</v>
@@ -8850,14 +9519,17 @@
       <c r="F369" s="1">
         <v>1</v>
       </c>
-      <c r="G369" s="1"/>
+      <c r="G369" s="2">
+        <f t="shared" si="5"/>
+        <v>56.626332149200721</v>
+      </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C370" s="1">
         <v>2035</v>
@@ -8871,14 +9543,17 @@
       <c r="F370" s="1">
         <v>23</v>
       </c>
-      <c r="G370" s="1"/>
+      <c r="G370" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7083365510850259</v>
+      </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C371" s="1">
         <v>2143</v>
@@ -8892,14 +9567,17 @@
       <c r="F371" s="1">
         <v>77</v>
       </c>
-      <c r="G371" s="1"/>
+      <c r="G371" s="2">
+        <f t="shared" si="5"/>
+        <v>0.495274042121289</v>
+      </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C372" s="1">
         <v>2227</v>
@@ -8913,14 +9591,17 @@
       <c r="F372" s="1">
         <v>84</v>
       </c>
-      <c r="G372" s="1"/>
+      <c r="G372" s="2">
+        <f t="shared" si="5"/>
+        <v>0.43336478685612795</v>
+      </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C373" s="1">
         <v>2416</v>
@@ -8934,14 +9615,17 @@
       <c r="F373" s="1">
         <v>56</v>
       </c>
-      <c r="G373" s="1"/>
+      <c r="G373" s="2">
+        <f t="shared" si="5"/>
+        <v>0.68100180791677256</v>
+      </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C374" s="1">
         <v>3736</v>
@@ -8955,14 +9639,17 @@
       <c r="F374" s="1">
         <v>31</v>
       </c>
-      <c r="G374" s="1"/>
+      <c r="G374" s="2">
+        <f t="shared" si="5"/>
+        <v>1.1742787772875725</v>
+      </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C375" s="1">
         <v>3772</v>
@@ -8976,14 +9663,17 @@
       <c r="F375" s="1">
         <v>106</v>
       </c>
-      <c r="G375" s="1"/>
+      <c r="G375" s="2">
+        <f t="shared" si="5"/>
+        <v>0.47424825731425324</v>
+      </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C376" s="1">
         <v>4712</v>
@@ -8997,14 +9687,17 @@
       <c r="F376" s="1">
         <v>2</v>
       </c>
-      <c r="G376" s="1"/>
+      <c r="G376" s="2">
+        <f t="shared" si="5"/>
+        <v>22.823878774422738</v>
+      </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C377" s="1">
         <v>4740</v>
@@ -9018,14 +9711,17 @@
       <c r="F377" s="1">
         <v>30</v>
       </c>
-      <c r="G377" s="1"/>
+      <c r="G377" s="2">
+        <f t="shared" si="5"/>
+        <v>1.406027975133215</v>
+      </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C378" s="1">
         <v>4804</v>
@@ -9039,14 +9735,17 @@
       <c r="F378" s="1">
         <v>7</v>
       </c>
-      <c r="G378" s="1"/>
+      <c r="G378" s="2">
+        <f t="shared" si="5"/>
+        <v>6.3560168738898764</v>
+      </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C379" s="1">
         <v>4894</v>
@@ -9060,14 +9759,17 @@
       <c r="F379" s="1">
         <v>12</v>
       </c>
-      <c r="G379" s="1"/>
+      <c r="G379" s="2">
+        <f t="shared" si="5"/>
+        <v>3.7076765097690947</v>
+      </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C380" s="1">
         <v>4992</v>
@@ -9081,14 +9783,17 @@
       <c r="F380" s="1">
         <v>18</v>
       </c>
-      <c r="G380" s="1"/>
+      <c r="G380" s="2">
+        <f t="shared" si="5"/>
+        <v>2.6964920071047964</v>
+      </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C381" s="1">
         <v>5091</v>
@@ -9102,7 +9807,10 @@
       <c r="F381" s="1">
         <v>15</v>
       </c>
-      <c r="G381" s="1"/>
+      <c r="G381" s="2">
+        <f t="shared" si="5"/>
+        <v>3.0817051509769096</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
